--- a/Mescp/Code/Config/Mescp.xlsx
+++ b/Mescp/Code/Config/Mescp.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="325">
   <si>
     <t>播种-出苗</t>
   </si>
@@ -1081,15 +1081,15 @@
     <t>Cmax</t>
   </si>
   <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>av</t>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Av</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1099,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1154,11 +1154,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1234,7 +1235,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,9 +1293,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1334,17 +1332,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1783,7 +1781,7 @@
     <col min="1" max="1" width="7.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="2"/>
-    <col min="4" max="5" width="12.125" style="20"/>
+    <col min="4" max="5" width="12.125" style="19"/>
     <col min="6" max="16384" width="12.125" style="2"/>
   </cols>
   <sheetData>
@@ -1797,25 +1795,25 @@
       <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>279</v>
       </c>
       <c r="K1" s="10" t="s">
@@ -1832,25 +1830,25 @@
       <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>113.32</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>119.85</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>35.979999999999997</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>42.63</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>6.1</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="21">
         <v>13.5</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="21">
         <v>6813</v>
       </c>
       <c r="M2" s="2">
@@ -1872,25 +1870,25 @@
       <c r="C3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>116.29</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>121.93</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>30.71</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>35.15</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>5.9</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>13.6</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>6832</v>
       </c>
     </row>
@@ -1904,25 +1902,25 @@
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>114.78</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>119.67</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>29.36</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>34.69</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>6.2</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>14.1</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>6834</v>
       </c>
     </row>
@@ -1936,25 +1934,25 @@
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>114.72</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>122.73</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>34.340000000000003</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>38.270000000000003</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>5.8</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>13.9</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>6837</v>
       </c>
     </row>
@@ -1968,25 +1966,25 @@
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>110.31</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>116.66</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>31.36</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>36.380000000000003</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>5.9</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>13.3</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>6841</v>
       </c>
     </row>
@@ -2000,52 +1998,52 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>110.31</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>122.73</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>30.97</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>41.13</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>5.7</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>13.6</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>6898</v>
       </c>
     </row>
     <row r="17" spans="12:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="12:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="12:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="12:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="12:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2821,538 +2819,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>0.39</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>0.13</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>0.48</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="24"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>0.37</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <v>0.23</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>0.41</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="24"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="A10" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="25">
         <v>0.34</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="A11" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>0.22</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="A12" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <v>0.44</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="23" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <v>0.41</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="23" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <v>0.09</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <v>0.51</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="23" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3380,3230 +3378,3230 @@
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="28"/>
+    <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="29">
         <v>53889</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <v>11382</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="31">
         <v>3607</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="31">
         <v>3068</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="29">
         <v>53898</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>11440</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>3605</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>629</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="30">
+      <c r="A4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="29">
         <v>53972</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>11292</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>3512</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>1196</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="30">
+      <c r="A5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="29">
         <v>53974</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>11418</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>3562</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>723</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="30">
+      <c r="A6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="29">
         <v>53978</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>11263</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>3508</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>1401</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="A7" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="29">
         <v>53979</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>11308</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>3515</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>1200</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="30">
+      <c r="A8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="29">
         <v>53982</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>11327</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>3523</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>1120</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H8" s="29" t="s">
+      <c r="G8" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="30">
+      <c r="A9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="29">
         <v>53983</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>11442</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>3503</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>696</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H9" s="29" t="s">
+      <c r="G9" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="30">
+      <c r="A10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="29">
         <v>53984</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>11347</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>3523</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>827</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="29" t="s">
+      <c r="G10" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="A11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="29">
         <v>53985</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>11382</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>3550</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>1407</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H11" s="29" t="s">
+      <c r="G11" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="30">
+      <c r="A12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="29">
         <v>53986</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>11388</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>3532</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>732</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H12" s="29" t="s">
+      <c r="G12" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="30">
+      <c r="A13" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="29">
         <v>53987</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>11342</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>3510</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>910</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="30">
+      <c r="A14" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="29">
         <v>53988</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>11367</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>3527</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>776</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H14" s="29" t="s">
+      <c r="G14" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="30">
+      <c r="A15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="29">
         <v>53989</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>11395</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>3505</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>766</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H15" s="29" t="s">
+      <c r="G15" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="30">
+      <c r="A16" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="29">
         <v>53990</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>11432</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>3572</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <v>795</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H16" s="29" t="s">
+      <c r="G16" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="30">
+      <c r="A17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="29">
         <v>53991</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>11433</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>3592</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>930</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H17" s="29" t="s">
+      <c r="G17" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="30">
+      <c r="A18" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="29">
         <v>53992</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <v>11452</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <v>3565</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <v>582</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H18" s="29" t="s">
+      <c r="G18" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="30">
+      <c r="A19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="29">
         <v>53993</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>11492</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>3593</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <v>516</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H19" s="29" t="s">
+      <c r="G19" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="30">
+      <c r="A20" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="29">
         <v>53994</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>11407</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <v>3538</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <v>700</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H20" s="29" t="s">
+      <c r="G20" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="30">
+      <c r="A21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="29">
         <v>53995</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>11450</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <v>3555</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>625</v>
       </c>
-      <c r="G21" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="30">
+      <c r="A22" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="29">
         <v>53997</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <v>11418</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <v>3515</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <v>711</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H22" s="29" t="s">
+      <c r="G22" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="30">
+      <c r="A23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="29">
         <v>53998</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="31">
         <v>11465</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>3520</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <v>616</v>
       </c>
-      <c r="G23" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H23" s="29" t="s">
+      <c r="G23" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="30">
+      <c r="A24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="29">
         <v>54817</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="31">
         <v>11587</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <v>3598</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <v>421</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H24" s="29" t="s">
+      <c r="G24" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="30">
+      <c r="A25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="29">
         <v>54900</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <v>11502</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>3570</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <v>537</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H25" s="29" t="s">
+      <c r="G25" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="30">
+      <c r="A26" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="29">
         <v>54901</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="31">
         <v>11517</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <v>3608</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <v>475</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H26" s="29" t="s">
+      <c r="G26" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="30">
+      <c r="A27" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="29">
         <v>54902</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="31">
         <v>11512</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="31">
         <v>3590</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="31">
         <v>495</v>
       </c>
-      <c r="G27" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H27" s="29" t="s">
+      <c r="G27" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="30">
+      <c r="A28" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="29">
         <v>54903</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="31">
         <v>11548</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="31">
         <v>3585</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="31">
         <v>457</v>
       </c>
-      <c r="G28" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H28" s="29" t="s">
+      <c r="G28" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H28" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="30">
+      <c r="A29" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="29">
         <v>57051</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="31">
         <v>11120</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="31">
         <v>3480</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="31">
         <v>4099</v>
       </c>
-      <c r="G29" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H29" s="29" t="s">
+      <c r="G29" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="30">
+      <c r="A30" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="29">
         <v>57056</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="31">
         <v>11088</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="31">
         <v>3453</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="31">
         <v>3904</v>
       </c>
-      <c r="G30" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H30" s="29" t="s">
+      <c r="G30" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="30">
+      <c r="A31" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="29">
         <v>57063</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="31">
         <v>11177</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="31">
         <v>3477</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="31">
         <v>5236</v>
       </c>
-      <c r="G31" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H31" s="29" t="s">
+      <c r="G31" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H31" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="30">
+      <c r="A32" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="29">
         <v>57065</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="31">
         <v>11218</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="31">
         <v>3450</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <v>1949</v>
       </c>
-      <c r="G32" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H32" s="29" t="s">
+      <c r="G32" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="30">
+      <c r="A33" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="29">
         <v>57066</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="31">
         <v>11167</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <v>3438</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="31">
         <v>3283</v>
       </c>
-      <c r="G33" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H33" s="29" t="s">
+      <c r="G33" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H33" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="30">
+      <c r="A34" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="29">
         <v>57067</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>11103</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <v>3405</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <v>5688</v>
       </c>
-      <c r="G34" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H34" s="29" t="s">
+      <c r="G34" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H34" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="30">
+      <c r="A35" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="29">
         <v>57070</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="31">
         <v>11212</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="31">
         <v>3473</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="31">
         <v>3640</v>
       </c>
-      <c r="G35" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H35" s="29" t="s">
+      <c r="G35" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H35" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="30">
+      <c r="A36" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="29">
         <v>57071</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>11243</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>3482</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="31">
         <v>3333</v>
       </c>
-      <c r="G36" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H36" s="29" t="s">
+      <c r="G36" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H36" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="30">
+      <c r="A37" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="29">
         <v>57072</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <v>11275</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>3492</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="31">
         <v>1275</v>
       </c>
-      <c r="G37" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H37" s="29" t="s">
+      <c r="G37" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H37" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="30">
+      <c r="A38" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="29">
         <v>57073</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="31">
         <v>11247</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <v>3463</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="31">
         <v>1371</v>
       </c>
-      <c r="G38" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H38" s="29" t="s">
+      <c r="G38" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H38" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="30">
+      <c r="A39" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="29">
         <v>57074</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="31">
         <v>11240</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="31">
         <v>3442</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="31">
         <v>2522</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H39" s="29" t="s">
+      <c r="G39" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="30">
+      <c r="A40" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="29">
         <v>57075</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="31">
         <v>11287</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="31">
         <v>3417</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="31">
         <v>2031</v>
       </c>
-      <c r="G40" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H40" s="29" t="s">
+      <c r="G40" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H40" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="30">
+      <c r="A41" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="29">
         <v>57076</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <v>11278</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="31">
         <v>3473</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="31">
         <v>1895</v>
       </c>
-      <c r="G41" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H41" s="29" t="s">
+      <c r="G41" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H41" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="30">
+      <c r="A42" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="29">
         <v>57077</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="31">
         <v>11165</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="31">
         <v>3378</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="31">
         <v>7424</v>
       </c>
-      <c r="G42" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H42" s="29" t="s">
+      <c r="G42" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H42" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="30">
+      <c r="A43" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="29">
         <v>57078</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31">
         <v>11247</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <v>3415</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="31">
         <v>3365</v>
       </c>
-      <c r="G43" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H43" s="29" t="s">
+      <c r="G43" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H43" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="30">
+      <c r="A44" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="29">
         <v>57079</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="31">
         <v>11303</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="31">
         <v>3495</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="31">
         <v>1064</v>
       </c>
-      <c r="G44" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H44" s="29" t="s">
+      <c r="G44" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H44" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="30">
+      <c r="A45" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="29">
         <v>57080</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="31">
         <v>11297</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="31">
         <v>3473</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="31">
         <v>1652</v>
       </c>
-      <c r="G45" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H45" s="29" t="s">
+      <c r="G45" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="30">
+      <c r="A46" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="29">
         <v>57081</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="31">
         <v>11343</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="31">
         <v>3480</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="31">
         <v>1409</v>
       </c>
-      <c r="G46" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H46" s="29" t="s">
+      <c r="G46" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H46" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="30">
+      <c r="A47" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="29">
         <v>57082</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="31">
         <v>11302</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="31">
         <v>3447</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="31">
         <v>4271</v>
       </c>
-      <c r="G47" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H47" s="29" t="s">
+      <c r="G47" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H47" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="30">
+      <c r="A48" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="29">
         <v>57083</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="31">
         <v>11365</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="31">
         <v>3472</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="31">
         <v>1104</v>
       </c>
-      <c r="G48" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H48" s="29" t="s">
+      <c r="G48" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H48" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="30">
+      <c r="A49" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="29">
         <v>57084</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="31">
         <v>11305</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <v>3450</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="31">
         <v>11784</v>
       </c>
-      <c r="G49" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H49" s="29" t="s">
+      <c r="G49" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H49" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="30">
+      <c r="A50" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="29">
         <v>57085</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="31">
         <v>11333</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="31">
         <v>3453</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="31">
         <v>2599</v>
       </c>
-      <c r="G50" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H50" s="29" t="s">
+      <c r="G50" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H50" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="30">
+      <c r="A51" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="29">
         <v>57086</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="31">
         <v>11372</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="31">
         <v>3438</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="31">
         <v>1166</v>
       </c>
-      <c r="G51" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H51" s="29" t="s">
+      <c r="G51" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H51" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="30">
+      <c r="A52" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="29">
         <v>57087</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="31">
         <v>11380</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="31">
         <v>3420</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="31">
         <v>877</v>
       </c>
-      <c r="G52" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H52" s="29" t="s">
+      <c r="G52" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H52" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="30">
+      <c r="A53" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="29">
         <v>57088</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="31">
         <v>11350</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="31">
         <v>3415</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="31">
         <v>1161</v>
       </c>
-      <c r="G53" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H53" s="29" t="s">
+      <c r="G53" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="30">
+      <c r="A54" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="29">
         <v>57089</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="31">
         <v>11387</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="31">
         <v>3403</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="31">
         <v>668</v>
       </c>
-      <c r="G54" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H54" s="29" t="s">
+      <c r="G54" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H54" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="30">
+      <c r="A55" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="29">
         <v>57090</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="31">
         <v>11397</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="31">
         <v>3472</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="31">
         <v>781</v>
       </c>
-      <c r="G55" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H55" s="29" t="s">
+      <c r="G55" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H55" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="30">
+      <c r="A56" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="29">
         <v>57091</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="31">
         <v>11430</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="31">
         <v>3478</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="31">
         <v>737</v>
       </c>
-      <c r="G56" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H56" s="29" t="s">
+      <c r="G56" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H56" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="30">
+      <c r="A57" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="29">
         <v>57093</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="31">
         <v>11482</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="31">
         <v>3485</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="31">
         <v>733</v>
       </c>
-      <c r="G57" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H57" s="29" t="s">
+      <c r="G57" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H57" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="30">
+      <c r="A58" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="29">
         <v>57094</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="31">
         <v>11422</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="31">
         <v>3440</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="31">
         <v>674</v>
       </c>
-      <c r="G58" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H58" s="29" t="s">
+      <c r="G58" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H58" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="30">
+      <c r="A59" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="29">
         <v>57095</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="32">
+      <c r="D59" s="31">
         <v>11415</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E59" s="31">
         <v>3412</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="31">
         <v>611</v>
       </c>
-      <c r="G59" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H59" s="29" t="s">
+      <c r="G59" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H59" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="30">
+      <c r="A60" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="29">
         <v>57096</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="31">
         <v>11478</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="31">
         <v>3453</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="31">
         <v>597</v>
       </c>
-      <c r="G60" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H60" s="29" t="s">
+      <c r="G60" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H60" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="30">
+      <c r="A61" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="29">
         <v>57097</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D61" s="31">
         <v>11367</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="31">
         <v>3480</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="31">
         <v>808</v>
       </c>
-      <c r="G61" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H61" s="29" t="s">
+      <c r="G61" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H61" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="30">
+      <c r="A62" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="29">
         <v>57098</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="31">
         <v>11440</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="31">
         <v>3408</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="31">
         <v>583</v>
       </c>
-      <c r="G62" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H62" s="29" t="s">
+      <c r="G62" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H62" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="30">
+      <c r="A63" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="29">
         <v>57099</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="31">
         <v>11485</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="31">
         <v>3407</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="31">
         <v>526</v>
       </c>
-      <c r="G63" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H63" s="29" t="s">
+      <c r="G63" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H63" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="30">
+      <c r="A64" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="29">
         <v>57156</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="31">
         <v>11150</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="31">
         <v>3330</v>
       </c>
-      <c r="F64" s="32">
+      <c r="F64" s="31">
         <v>2503</v>
       </c>
-      <c r="G64" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H64" s="29" t="s">
+      <c r="G64" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H64" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="30">
+      <c r="A65" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="29">
         <v>57162</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D65" s="31">
         <v>11208</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E65" s="31">
         <v>3415</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F65" s="31">
         <v>3258</v>
       </c>
-      <c r="G65" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H65" s="29" t="s">
+      <c r="G65" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H65" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="30">
+      <c r="A66" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="29">
         <v>57169</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="31">
         <v>11187</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="31">
         <v>3305</v>
       </c>
-      <c r="F66" s="32">
+      <c r="F66" s="31">
         <v>1591</v>
       </c>
-      <c r="G66" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H66" s="29" t="s">
+      <c r="G66" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H66" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="30">
+      <c r="A67" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="29">
         <v>57171</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="31">
         <v>11312</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="31">
         <v>3377</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="31">
         <v>1420</v>
       </c>
-      <c r="G67" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H67" s="29" t="s">
+      <c r="G67" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H67" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="30">
+      <c r="A68" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="29">
         <v>57173</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D68" s="31">
         <v>11288</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E68" s="31">
         <v>3375</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F68" s="31">
         <v>1457</v>
       </c>
-      <c r="G68" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H68" s="29" t="s">
+      <c r="G68" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H68" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="30">
+      <c r="A69" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="29">
         <v>57175</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="D69" s="32">
+      <c r="D69" s="31">
         <v>11223</v>
       </c>
-      <c r="E69" s="32">
+      <c r="E69" s="31">
         <v>3305</v>
       </c>
-      <c r="F69" s="32">
+      <c r="F69" s="31">
         <v>1914</v>
       </c>
-      <c r="G69" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H69" s="29" t="s">
+      <c r="G69" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="30">
+      <c r="A70" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="29">
         <v>57176</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="32">
+      <c r="D70" s="31">
         <v>11242</v>
       </c>
-      <c r="E70" s="32">
+      <c r="E70" s="31">
         <v>3348</v>
       </c>
-      <c r="F70" s="32">
+      <c r="F70" s="31">
         <v>2311</v>
       </c>
-      <c r="G70" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H70" s="29" t="s">
+      <c r="G70" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="30">
+      <c r="A71" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="29">
         <v>57177</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D71" s="31">
         <v>11353</v>
       </c>
-      <c r="E71" s="32">
+      <c r="E71" s="31">
         <v>3333</v>
       </c>
-      <c r="F71" s="32">
+      <c r="F71" s="31">
         <v>898</v>
       </c>
-      <c r="G71" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H71" s="29" t="s">
+      <c r="G71" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H71" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="30">
+      <c r="A72" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="29">
         <v>57178</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="32">
+      <c r="D72" s="31">
         <v>11258</v>
       </c>
-      <c r="E72" s="32">
+      <c r="E72" s="31">
         <v>3303</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F72" s="31">
         <v>1292</v>
       </c>
-      <c r="G72" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H72" s="29" t="s">
+      <c r="G72" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H72" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="30">
+      <c r="A73" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="29">
         <v>57179</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="31">
         <v>11300</v>
       </c>
-      <c r="E73" s="32">
+      <c r="E73" s="31">
         <v>3328</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F73" s="31">
         <v>1604</v>
       </c>
-      <c r="G73" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H73" s="29" t="s">
+      <c r="G73" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="30">
+      <c r="A74" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="29">
         <v>57180</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="31">
         <v>11320</v>
       </c>
-      <c r="E74" s="32">
+      <c r="E74" s="31">
         <v>3398</v>
       </c>
-      <c r="F74" s="32">
+      <c r="F74" s="31">
         <v>1175</v>
       </c>
-      <c r="G74" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H74" s="29" t="s">
+      <c r="G74" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H74" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="30">
+      <c r="A75" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="29">
         <v>57181</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="31">
         <v>11305</v>
       </c>
-      <c r="E75" s="32">
+      <c r="E75" s="31">
         <v>3388</v>
       </c>
-      <c r="F75" s="32">
+      <c r="F75" s="31">
         <v>1364</v>
       </c>
-      <c r="G75" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H75" s="29" t="s">
+      <c r="G75" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H75" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="30">
+      <c r="A76" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="29">
         <v>57182</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D76" s="32">
+      <c r="D76" s="31">
         <v>11350</v>
       </c>
-      <c r="E76" s="32">
+      <c r="E76" s="31">
         <v>3385</v>
       </c>
-      <c r="F76" s="32">
+      <c r="F76" s="31">
         <v>805</v>
       </c>
-      <c r="G76" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H76" s="29" t="s">
+      <c r="G76" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H76" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="30">
+      <c r="A77" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="29">
         <v>57183</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D77" s="31">
         <v>11392</v>
       </c>
-      <c r="E77" s="32">
+      <c r="E77" s="31">
         <v>3380</v>
       </c>
-      <c r="F77" s="32">
+      <c r="F77" s="31">
         <v>600</v>
       </c>
-      <c r="G77" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H77" s="29" t="s">
+      <c r="G77" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H77" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="30">
+      <c r="A78" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="29">
         <v>57184</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D78" s="31">
         <v>11337</v>
       </c>
-      <c r="E78" s="32">
+      <c r="E78" s="31">
         <v>3363</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F78" s="31">
         <v>834</v>
       </c>
-      <c r="G78" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H78" s="29" t="s">
+      <c r="G78" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H78" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="30">
+      <c r="A79" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="29">
         <v>57185</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="31">
         <v>11358</v>
       </c>
-      <c r="E79" s="32">
+      <c r="E79" s="31">
         <v>3345</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="31">
         <v>911</v>
       </c>
-      <c r="G79" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H79" s="29" t="s">
+      <c r="G79" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H79" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="30">
+      <c r="A80" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="29">
         <v>57186</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="31">
         <v>11405</v>
       </c>
-      <c r="E80" s="32">
+      <c r="E80" s="31">
         <v>3360</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F80" s="31">
         <v>587</v>
       </c>
-      <c r="G80" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H80" s="29" t="s">
+      <c r="G80" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H80" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="30">
+      <c r="A81" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="29">
         <v>57187</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D81" s="32">
+      <c r="D81" s="31">
         <v>11293</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="31">
         <v>3307</v>
       </c>
-      <c r="F81" s="32">
+      <c r="F81" s="31">
         <v>1180</v>
       </c>
-      <c r="G81" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H81" s="29" t="s">
+      <c r="G81" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H81" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="30">
+      <c r="A82" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="29">
         <v>57188</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="31">
         <v>11403</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="31">
         <v>3337</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="31">
         <v>559</v>
       </c>
-      <c r="G82" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H82" s="29" t="s">
+      <c r="G82" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" s="30">
+      <c r="A83" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="29">
         <v>57189</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="31">
         <v>11395</v>
       </c>
-      <c r="E83" s="32">
+      <c r="E83" s="31">
         <v>3313</v>
       </c>
-      <c r="F83" s="32">
+      <c r="F83" s="31">
         <v>646</v>
       </c>
-      <c r="G83" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H83" s="29" t="s">
+      <c r="G83" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H83" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" s="30">
+      <c r="A84" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="29">
         <v>57190</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="31">
         <v>11440</v>
       </c>
-      <c r="E84" s="32">
+      <c r="E84" s="31">
         <v>3375</v>
       </c>
-      <c r="F84" s="32">
+      <c r="F84" s="31">
         <v>505</v>
       </c>
-      <c r="G84" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H84" s="29" t="s">
+      <c r="G84" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H84" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="30">
+      <c r="A85" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="29">
         <v>57191</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="32">
+      <c r="D85" s="31">
         <v>11448</v>
       </c>
-      <c r="E85" s="32">
+      <c r="E85" s="31">
         <v>3448</v>
       </c>
-      <c r="F85" s="32">
+      <c r="F85" s="31">
         <v>634</v>
       </c>
-      <c r="G85" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H85" s="29" t="s">
+      <c r="G85" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H85" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" s="30">
+      <c r="A86" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="29">
         <v>57192</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="31">
         <v>11485</v>
       </c>
-      <c r="E86" s="32">
+      <c r="E86" s="31">
         <v>3373</v>
       </c>
-      <c r="F86" s="32">
+      <c r="F86" s="31">
         <v>455</v>
       </c>
-      <c r="G86" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H86" s="29" t="s">
+      <c r="G86" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H86" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="30">
+      <c r="A87" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="29">
         <v>57193</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="D87" s="32">
+      <c r="D87" s="31">
         <v>11452</v>
       </c>
-      <c r="E87" s="32">
+      <c r="E87" s="31">
         <v>3378</v>
       </c>
-      <c r="F87" s="32">
+      <c r="F87" s="31">
         <v>526</v>
       </c>
-      <c r="G87" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H87" s="29" t="s">
+      <c r="G87" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H87" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" s="30">
+      <c r="A88" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="29">
         <v>57194</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D88" s="32">
+      <c r="D88" s="31">
         <v>11427</v>
       </c>
-      <c r="E88" s="32">
+      <c r="E88" s="31">
         <v>3328</v>
       </c>
-      <c r="F88" s="32">
+      <c r="F88" s="31">
         <v>598</v>
       </c>
-      <c r="G88" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H88" s="29" t="s">
+      <c r="G88" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H88" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" s="30">
+      <c r="A89" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" s="29">
         <v>57195</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D89" s="32">
+      <c r="D89" s="31">
         <v>11462</v>
       </c>
-      <c r="E89" s="32">
+      <c r="E89" s="31">
         <v>3362</v>
       </c>
-      <c r="F89" s="32">
+      <c r="F89" s="31">
         <v>466</v>
       </c>
-      <c r="G89" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H89" s="29" t="s">
+      <c r="G89" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H89" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="30">
+      <c r="A90" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="29">
         <v>57196</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="31">
         <v>11487</v>
       </c>
-      <c r="E90" s="32">
+      <c r="E90" s="31">
         <v>3347</v>
       </c>
-      <c r="F90" s="32">
+      <c r="F90" s="31">
         <v>420</v>
       </c>
-      <c r="G90" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H90" s="29" t="s">
+      <c r="G90" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H90" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="30">
+      <c r="A91" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="29">
         <v>57197</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="D91" s="32">
+      <c r="D91" s="31">
         <v>11433</v>
       </c>
-      <c r="E91" s="32">
+      <c r="E91" s="31">
         <v>3300</v>
       </c>
-      <c r="F91" s="32">
+      <c r="F91" s="31">
         <v>489</v>
       </c>
-      <c r="G91" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H91" s="29" t="s">
+      <c r="G91" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H91" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" s="30">
+      <c r="A92" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="29">
         <v>57198</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D92" s="31">
         <v>11462</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="31">
         <v>3355</v>
       </c>
-      <c r="F92" s="32">
+      <c r="F92" s="31">
         <v>463</v>
       </c>
-      <c r="G92" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H92" s="29" t="s">
+      <c r="G92" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H92" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="30">
+      <c r="A93" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="29">
         <v>57261</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="32">
+      <c r="D93" s="31">
         <v>11152</v>
       </c>
-      <c r="E93" s="32">
+      <c r="E93" s="31">
         <v>3312</v>
       </c>
-      <c r="F93" s="32">
+      <c r="F93" s="31">
         <v>2330</v>
       </c>
-      <c r="G93" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H93" s="29" t="s">
+      <c r="G93" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H93" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="30">
+      <c r="A94" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="29">
         <v>57271</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="D94" s="32">
+      <c r="D94" s="31">
         <v>11238</v>
       </c>
-      <c r="E94" s="32">
+      <c r="E94" s="31">
         <v>3255</v>
       </c>
-      <c r="F94" s="32">
+      <c r="F94" s="31">
         <v>879</v>
       </c>
-      <c r="G94" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H94" s="29" t="s">
+      <c r="G94" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H94" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" s="30">
+      <c r="A95" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="29">
         <v>57273</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D95" s="32">
+      <c r="D95" s="31">
         <v>11285</v>
       </c>
-      <c r="E95" s="32">
+      <c r="E95" s="31">
         <v>3268</v>
       </c>
-      <c r="F95" s="32">
+      <c r="F95" s="31">
         <v>1095</v>
       </c>
-      <c r="G95" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H95" s="29" t="s">
+      <c r="G95" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H95" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B96" s="30">
+      <c r="A96" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="29">
         <v>57274</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="D96" s="32">
+      <c r="D96" s="31">
         <v>11212</v>
       </c>
-      <c r="E96" s="32">
+      <c r="E96" s="31">
         <v>3270</v>
       </c>
-      <c r="F96" s="32">
+      <c r="F96" s="31">
         <v>1076</v>
       </c>
-      <c r="G96" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H96" s="29" t="s">
+      <c r="G96" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H96" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="30">
+      <c r="A97" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="29">
         <v>57281</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="32">
+      <c r="D97" s="31">
         <v>11330</v>
       </c>
-      <c r="E97" s="32">
+      <c r="E97" s="31">
         <v>3270</v>
       </c>
-      <c r="F97" s="32">
+      <c r="F97" s="31">
         <v>1422</v>
       </c>
-      <c r="G97" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H97" s="29" t="s">
+      <c r="G97" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H97" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" s="30">
+      <c r="A98" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" s="29">
         <v>57285</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D98" s="32">
+      <c r="D98" s="31">
         <v>11342</v>
       </c>
-      <c r="E98" s="32">
+      <c r="E98" s="31">
         <v>3238</v>
       </c>
-      <c r="F98" s="32">
+      <c r="F98" s="31">
         <v>1530</v>
       </c>
-      <c r="G98" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H98" s="29" t="s">
+      <c r="G98" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H98" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99" s="30">
+      <c r="A99" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="29">
         <v>57290</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D99" s="32">
+      <c r="D99" s="31">
         <v>11402</v>
       </c>
-      <c r="E99" s="32">
+      <c r="E99" s="31">
         <v>3300</v>
       </c>
-      <c r="F99" s="32">
+      <c r="F99" s="31">
         <v>827</v>
       </c>
-      <c r="G99" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H99" s="29" t="s">
+      <c r="G99" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H99" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100" s="30">
+      <c r="A100" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="29">
         <v>57292</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D100" s="32">
+      <c r="D100" s="31">
         <v>11463</v>
       </c>
-      <c r="E100" s="32">
+      <c r="E100" s="31">
         <v>3297</v>
       </c>
-      <c r="F100" s="32">
+      <c r="F100" s="31">
         <v>444</v>
       </c>
-      <c r="G100" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H100" s="29" t="s">
+      <c r="G100" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H100" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" s="30">
+      <c r="A101" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="29">
         <v>57293</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="D101" s="32">
+      <c r="D101" s="31">
         <v>11498</v>
       </c>
-      <c r="E101" s="32">
+      <c r="E101" s="31">
         <v>3273</v>
       </c>
-      <c r="F101" s="32">
+      <c r="F101" s="31">
         <v>380</v>
       </c>
-      <c r="G101" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H101" s="29" t="s">
+      <c r="G101" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H101" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" s="30">
+      <c r="A102" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="29">
         <v>57294</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="D102" s="32">
+      <c r="D102" s="31">
         <v>11402</v>
       </c>
-      <c r="E102" s="32">
+      <c r="E102" s="31">
         <v>3283</v>
       </c>
-      <c r="F102" s="32">
+      <c r="F102" s="31">
         <v>836</v>
       </c>
-      <c r="G102" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H102" s="29" t="s">
+      <c r="G102" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H102" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103" s="30">
+      <c r="A103" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="29">
         <v>57295</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="D103" s="32">
+      <c r="D103" s="31">
         <v>11435</v>
       </c>
-      <c r="E103" s="32">
+      <c r="E103" s="31">
         <v>3262</v>
       </c>
-      <c r="F103" s="32">
+      <c r="F103" s="31">
         <v>785</v>
       </c>
-      <c r="G103" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H103" s="29" t="s">
+      <c r="G103" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H103" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="30">
+      <c r="A104" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="29">
         <v>57296</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D104" s="32">
+      <c r="D104" s="31">
         <v>11473</v>
       </c>
-      <c r="E104" s="32">
+      <c r="E104" s="31">
         <v>3235</v>
       </c>
-      <c r="F104" s="32">
+      <c r="F104" s="31">
         <v>489</v>
       </c>
-      <c r="G104" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H104" s="29" t="s">
+      <c r="G104" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H104" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105" s="30">
+      <c r="A105" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="29">
         <v>57297</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="D105" s="32">
+      <c r="D105" s="31">
         <v>11405</v>
       </c>
-      <c r="E105" s="32">
+      <c r="E105" s="31">
         <v>3213</v>
       </c>
-      <c r="F105" s="32">
+      <c r="F105" s="31">
         <v>1145</v>
       </c>
-      <c r="G105" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H105" s="29" t="s">
+      <c r="G105" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H105" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="30">
+      <c r="A106" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="29">
         <v>57298</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C106" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D106" s="32">
+      <c r="D106" s="31">
         <v>11455</v>
       </c>
-      <c r="E106" s="32">
+      <c r="E106" s="31">
         <v>3222</v>
       </c>
-      <c r="F106" s="32">
+      <c r="F106" s="31">
         <v>554</v>
       </c>
-      <c r="G106" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H106" s="29" t="s">
+      <c r="G106" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H106" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="30">
+      <c r="A107" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="29">
         <v>57299</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="D107" s="32">
+      <c r="D107" s="31">
         <v>11490</v>
       </c>
-      <c r="E107" s="32">
+      <c r="E107" s="31">
         <v>3202</v>
       </c>
-      <c r="F107" s="32">
+      <c r="F107" s="31">
         <v>494</v>
       </c>
-      <c r="G107" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H107" s="29" t="s">
+      <c r="G107" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H107" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" s="30">
+      <c r="A108" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="29">
         <v>57390</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="D108" s="32">
+      <c r="D108" s="31">
         <v>11407</v>
       </c>
-      <c r="E108" s="32">
+      <c r="E108" s="31">
         <v>3180</v>
       </c>
-      <c r="F108" s="32">
+      <c r="F108" s="31">
         <v>7335</v>
       </c>
-      <c r="G108" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H108" s="29" t="s">
+      <c r="G108" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H108" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="30">
+      <c r="A109" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="29">
         <v>57396</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="D109" s="32">
+      <c r="D109" s="31">
         <v>11485</v>
       </c>
-      <c r="E109" s="32">
+      <c r="E109" s="31">
         <v>3163</v>
       </c>
-      <c r="F109" s="32">
+      <c r="F109" s="31">
         <v>1287</v>
       </c>
-      <c r="G109" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H109" s="29" t="s">
+      <c r="G109" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H109" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="30">
+      <c r="A110" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" s="29">
         <v>58001</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="C110" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="D110" s="32">
+      <c r="D110" s="31">
         <v>11510</v>
       </c>
-      <c r="E110" s="32">
+      <c r="E110" s="31">
         <v>3443</v>
       </c>
-      <c r="F110" s="32">
+      <c r="F110" s="31">
         <v>563</v>
       </c>
-      <c r="G110" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H110" s="29" t="s">
+      <c r="G110" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H110" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B111" s="30">
+      <c r="A111" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="29">
         <v>58004</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="C111" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D111" s="32">
+      <c r="D111" s="31">
         <v>11515</v>
       </c>
-      <c r="E111" s="32">
+      <c r="E111" s="31">
         <v>3465</v>
       </c>
-      <c r="F111" s="32">
+      <c r="F111" s="31">
         <v>606</v>
       </c>
-      <c r="G111" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H111" s="29" t="s">
+      <c r="G111" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H111" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="30">
+      <c r="A112" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="29">
         <v>58005</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D112" s="32">
+      <c r="D112" s="31">
         <v>11567</v>
       </c>
-      <c r="E112" s="32">
+      <c r="E112" s="31">
         <v>3445</v>
       </c>
-      <c r="F112" s="32">
+      <c r="F112" s="31">
         <v>501</v>
       </c>
-      <c r="G112" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H112" s="29" t="s">
+      <c r="G112" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H112" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B113" s="30">
+      <c r="A113" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" s="29">
         <v>58006</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="D113" s="32">
+      <c r="D113" s="31">
         <v>11588</v>
       </c>
-      <c r="E113" s="32">
+      <c r="E113" s="31">
         <v>3438</v>
       </c>
-      <c r="F113" s="32">
+      <c r="F113" s="31">
         <v>463</v>
       </c>
-      <c r="G113" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H113" s="29" t="s">
+      <c r="G113" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H113" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" s="30">
+      <c r="A114" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" s="29">
         <v>58007</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C114" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="D114" s="32">
+      <c r="D114" s="31">
         <v>11530</v>
       </c>
-      <c r="E114" s="32">
+      <c r="E114" s="31">
         <v>3407</v>
       </c>
-      <c r="F114" s="32">
+      <c r="F114" s="31">
         <v>472</v>
       </c>
-      <c r="G114" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H114" s="29" t="s">
+      <c r="G114" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H114" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B115" s="30">
+      <c r="A115" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" s="29">
         <v>58008</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="C115" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="D115" s="32">
+      <c r="D115" s="31">
         <v>11533</v>
       </c>
-      <c r="E115" s="32">
+      <c r="E115" s="31">
         <v>3447</v>
       </c>
-      <c r="F115" s="32">
+      <c r="F115" s="31">
         <v>544</v>
       </c>
-      <c r="G115" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H115" s="29" t="s">
+      <c r="G115" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H115" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116" s="30">
+      <c r="A116" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" s="29">
         <v>58017</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="D116" s="32">
+      <c r="D116" s="31">
         <v>11613</v>
       </c>
-      <c r="E116" s="32">
+      <c r="E116" s="31">
         <v>3425</v>
       </c>
-      <c r="F116" s="32">
+      <c r="F116" s="31">
         <v>410</v>
       </c>
-      <c r="G116" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H116" s="29" t="s">
+      <c r="G116" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H116" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117" s="30">
+      <c r="A117" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" s="29">
         <v>58100</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="D117" s="32">
+      <c r="D117" s="31">
         <v>11517</v>
       </c>
-      <c r="E117" s="32">
+      <c r="E117" s="31">
         <v>3365</v>
       </c>
-      <c r="F117" s="32">
+      <c r="F117" s="31">
         <v>414</v>
       </c>
-      <c r="G117" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H117" s="29" t="s">
+      <c r="G117" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H117" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" s="30">
+      <c r="A118" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="29">
         <v>58101</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="D118" s="32">
+      <c r="D118" s="31">
         <v>11548</v>
       </c>
-      <c r="E118" s="32">
+      <c r="E118" s="31">
         <v>3387</v>
       </c>
-      <c r="F118" s="32">
+      <c r="F118" s="31">
         <v>413</v>
       </c>
-      <c r="G118" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H118" s="29" t="s">
+      <c r="G118" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H118" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B119" s="30">
+      <c r="A119" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" s="29">
         <v>58104</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="C119" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="D119" s="32">
+      <c r="D119" s="31">
         <v>11507</v>
       </c>
-      <c r="E119" s="32">
+      <c r="E119" s="31">
         <v>3340</v>
       </c>
-      <c r="F119" s="32">
+      <c r="F119" s="31">
         <v>412</v>
       </c>
-      <c r="G119" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H119" s="29" t="s">
+      <c r="G119" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H119" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B120" s="30">
+      <c r="A120" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="29">
         <v>58111</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D120" s="32">
+      <c r="D120" s="31">
         <v>11645</v>
       </c>
-      <c r="E120" s="32">
+      <c r="E120" s="31">
         <v>3397</v>
       </c>
-      <c r="F120" s="32">
+      <c r="F120" s="31">
         <v>325</v>
       </c>
-      <c r="G120" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H120" s="29" t="s">
+      <c r="G120" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H120" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B121" s="30">
+      <c r="A121" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="29">
         <v>58205</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="D121" s="32">
+      <c r="D121" s="31">
         <v>11543</v>
       </c>
-      <c r="E121" s="32">
+      <c r="E121" s="31">
         <v>3247</v>
       </c>
-      <c r="F121" s="32">
+      <c r="F121" s="31">
         <v>349</v>
       </c>
-      <c r="G121" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H121" s="29" t="s">
+      <c r="G121" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H121" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" s="30">
+      <c r="A122" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B122" s="29">
         <v>58207</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="C122" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="D122" s="32">
+      <c r="D122" s="31">
         <v>11505</v>
       </c>
-      <c r="E122" s="32">
+      <c r="E122" s="31">
         <v>3217</v>
       </c>
-      <c r="F122" s="32">
+      <c r="F122" s="31">
         <v>428</v>
       </c>
-      <c r="G122" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H122" s="29" t="s">
+      <c r="G122" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H122" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B123" s="30">
+      <c r="A123" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B123" s="29">
         <v>58208</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C123" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="D123" s="32">
+      <c r="D123" s="31">
         <v>11562</v>
       </c>
-      <c r="E123" s="32">
+      <c r="E123" s="31">
         <v>3217</v>
       </c>
-      <c r="F123" s="32">
+      <c r="F123" s="31">
         <v>429</v>
       </c>
-      <c r="G123" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H123" s="29" t="s">
+      <c r="G123" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H123" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B124" s="30">
+      <c r="B124" s="29">
         <v>58301</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="D124" s="32">
+      <c r="D124" s="31">
         <v>11538</v>
       </c>
-      <c r="E124" s="32">
+      <c r="E124" s="31">
         <v>3182</v>
       </c>
-      <c r="F124" s="32">
+      <c r="F124" s="31">
         <v>921</v>
       </c>
-      <c r="G124" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="H124" s="29" t="s">
+      <c r="G124" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H124" s="28" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6616,299 +6614,256 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="19"/>
-    <col min="10" max="12" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="32"/>
+    <col min="2" max="3" width="9" style="33"/>
+    <col min="4" max="10" width="9" style="35"/>
+    <col min="11" max="13" width="9" style="34"/>
+    <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="19">
+    </row>
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="33">
+        <v>6.41</v>
+      </c>
+      <c r="C2" s="33">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="33">
+        <v>6.47</v>
+      </c>
+      <c r="C3" s="33">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="33">
+        <v>2.85</v>
+      </c>
+      <c r="C4" s="33">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="33">
+        <v>6.14</v>
+      </c>
+      <c r="C5" s="33">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="33">
+        <v>6.67</v>
+      </c>
+      <c r="C6" s="33">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="33">
+        <v>7.54</v>
+      </c>
+      <c r="C7" s="33">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="33">
+        <v>6.78</v>
+      </c>
+      <c r="C8" s="33">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="32">
         <v>2007</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B9" s="33">
         <v>6.61</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C9" s="33">
         <v>15.31</v>
       </c>
-      <c r="G2" s="34">
-        <v>6813</v>
-      </c>
-      <c r="H2" s="34">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I2" s="34">
-        <v>13.5</v>
-      </c>
-      <c r="J2" s="36">
-        <f>0.8*H2+0.2*I2</f>
-        <v>6.38</v>
-      </c>
-      <c r="K2" s="36">
-        <f t="shared" ref="K2:K7" ca="1" si="0">AVERAGE(J2:L2)</f>
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="L2" s="36">
-        <f>0.8*I2+0.2*H2</f>
-        <v>11.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="19">
+    </row>
+    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="32">
         <v>2008</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B10" s="33">
         <v>7.26</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C10" s="33">
         <v>15.48</v>
       </c>
-      <c r="G3" s="34">
-        <v>6832</v>
-      </c>
-      <c r="H3" s="34">
-        <v>3.5</v>
-      </c>
-      <c r="I3" s="34">
-        <v>13.6</v>
-      </c>
-      <c r="J3" s="36">
-        <f t="shared" ref="J3:J7" si="1">0.8*H3+0.2*I3</f>
-        <v>5.5200000000000005</v>
-      </c>
-      <c r="K3" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="L3" s="36">
-        <f t="shared" ref="L3:L7" si="2">0.8*I3+0.2*H3</f>
-        <v>11.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
+    </row>
+    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="32">
         <v>2009</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B11" s="33">
         <v>3.94</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C11" s="33">
         <v>15.88</v>
       </c>
-      <c r="G4" s="34">
-        <v>6834</v>
-      </c>
-      <c r="H4" s="34">
-        <v>3.8</v>
-      </c>
-      <c r="I4" s="34">
-        <v>14.1</v>
-      </c>
-      <c r="J4" s="36">
-        <f t="shared" si="1"/>
-        <v>5.86</v>
-      </c>
-      <c r="K4" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9500000000000011</v>
-      </c>
-      <c r="L4" s="36">
-        <f t="shared" si="2"/>
-        <v>12.040000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="19">
+    </row>
+    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="32">
         <v>2010</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B12" s="33">
         <v>5.04</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C12" s="33">
         <v>15.72</v>
       </c>
-      <c r="G5" s="34">
-        <v>6837</v>
-      </c>
-      <c r="H5" s="34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I5" s="34">
-        <v>13.9</v>
-      </c>
-      <c r="J5" s="36">
-        <f t="shared" si="1"/>
-        <v>6.0600000000000005</v>
-      </c>
-      <c r="K5" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L5" s="36">
-        <f t="shared" si="2"/>
-        <v>11.940000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="19">
+    </row>
+    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32">
         <v>2011</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B13" s="33">
         <v>5.38</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C13" s="33">
         <v>14.58</v>
       </c>
-      <c r="G6" s="34">
-        <v>6841</v>
-      </c>
-      <c r="H6" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="I6" s="34">
-        <v>14.9</v>
-      </c>
-      <c r="J6" s="36">
-        <f t="shared" si="1"/>
-        <v>5.9400000000000013</v>
-      </c>
-      <c r="K6" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L6" s="36">
-        <f t="shared" si="2"/>
-        <v>12.660000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="19">
+    </row>
+    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32">
         <v>2012</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B14" s="33">
         <v>0.73</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C14" s="33">
         <v>13.01</v>
       </c>
-      <c r="G7" s="34">
-        <v>6898</v>
-      </c>
-      <c r="H7" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="I7" s="34">
-        <v>14.9</v>
-      </c>
-      <c r="J7" s="36">
-        <f t="shared" si="1"/>
-        <v>5.9400000000000013</v>
-      </c>
-      <c r="K7" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L7" s="36">
-        <f t="shared" si="2"/>
-        <v>12.660000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="19">
+    </row>
+    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="32">
         <v>2013</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B15" s="33">
         <v>1.02</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C15" s="33">
         <v>12.34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="19">
+    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="32">
         <v>2014</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B16" s="33">
         <v>0.99</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C16" s="33">
         <v>13.93</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="19">
+    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="32">
         <v>2015</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B17" s="33">
         <v>6.58</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C17" s="33">
         <v>16.579999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="19">
+    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="32">
         <v>2016</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B18" s="33">
         <v>1.29</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C18" s="33">
         <v>14.19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="19">
+    <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="32">
         <v>2017</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B19" s="33">
         <v>1.29</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C19" s="33">
         <v>16.28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="19">
-        <f>AVERAGE(B2:B12)</f>
-        <v>3.648181818181818</v>
-      </c>
-      <c r="C13" s="19">
-        <f>AVERAGE(C2:C12)</f>
-        <v>14.845454545454544</v>
+    <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="33">
+        <f>AVERAGE(B2:B19)</f>
+        <v>4.6105555555555551</v>
+      </c>
+      <c r="C20" s="33">
+        <f>AVERAGE(C2:C19)</f>
+        <v>15.137777777777778</v>
+      </c>
+      <c r="E20" s="35">
+        <f>0.8*B20+0.2*C20</f>
+        <v>6.7160000000000002</v>
+      </c>
+      <c r="F20" s="35">
+        <f>0.5*B20+0.5*C20</f>
+        <v>9.8741666666666674</v>
+      </c>
+      <c r="G20" s="35">
+        <f>0.2*B20+0.8*C20</f>
+        <v>13.032333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Mescp/Code/Config/Mescp.xlsx
+++ b/Mescp/Code/Config/Mescp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="839" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Readme" sheetId="7" r:id="rId1"/>
@@ -2235,9 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B2B1FE-C1EF-4A93-813C-5221F008AD7D}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2388,7 +2386,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2588,8 +2586,8 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>364</v>
+      <c r="A12" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>67</v>
@@ -2604,8 +2602,8 @@
       <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>364</v>
+      <c r="A13" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>67</v>
@@ -2620,8 +2618,8 @@
       <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>364</v>
+      <c r="A14" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>67</v>
@@ -2636,8 +2634,8 @@
       <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>364</v>
+      <c r="A15" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>67</v>
@@ -2652,8 +2650,8 @@
       <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>364</v>
+      <c r="A16" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>67</v>
@@ -2668,8 +2666,8 @@
       <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>364</v>
+      <c r="A17" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>67</v>
@@ -2684,8 +2682,8 @@
       <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>364</v>
+      <c r="A18" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>67</v>
@@ -2700,8 +2698,8 @@
       <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>364</v>
+      <c r="A19" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>67</v>
@@ -2716,8 +2714,8 @@
       <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>364</v>
+      <c r="A20" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>67</v>
@@ -2732,8 +2730,8 @@
       <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>364</v>
+      <c r="A21" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>67</v>
@@ -2978,8 +2976,8 @@
       <c r="O31" s="40"/>
     </row>
     <row r="32" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>364</v>
+      <c r="A32" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>361</v>
@@ -2994,8 +2992,8 @@
       <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>364</v>
+      <c r="A33" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B33" s="43" t="s">
         <v>361</v>
@@ -3010,8 +3008,8 @@
       <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
-        <v>364</v>
+      <c r="A34" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>361</v>
@@ -3026,8 +3024,8 @@
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>364</v>
+      <c r="A35" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B35" s="43" t="s">
         <v>361</v>
@@ -3042,8 +3040,8 @@
       <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>364</v>
+      <c r="A36" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>361</v>
@@ -3058,8 +3056,8 @@
       <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>364</v>
+      <c r="A37" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B37" s="43" t="s">
         <v>361</v>
@@ -3074,8 +3072,8 @@
       <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>364</v>
+      <c r="A38" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>361</v>
@@ -3090,8 +3088,8 @@
       <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>364</v>
+      <c r="A39" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B39" s="43" t="s">
         <v>361</v>
@@ -3106,8 +3104,8 @@
       <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>364</v>
+      <c r="A40" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B40" s="43" t="s">
         <v>361</v>
@@ -3122,8 +3120,8 @@
       <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>364</v>
+      <c r="A41" s="43" t="s">
+        <v>324</v>
       </c>
       <c r="B41" s="43" t="s">
         <v>361</v>
@@ -3147,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF326B5C-EE5B-442C-B7AB-F1CC572C49C3}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -3370,7 +3368,7 @@
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -3388,7 +3386,7 @@
       <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -3406,7 +3404,7 @@
       <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -3424,7 +3422,7 @@
       <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -3442,7 +3440,7 @@
       <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B16" s="43" t="s">
@@ -3460,7 +3458,7 @@
       <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B17" s="43" t="s">
@@ -3478,7 +3476,7 @@
       <c r="P17" s="32"/>
     </row>
     <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -3496,7 +3494,7 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -3514,7 +3512,7 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B20" s="43" t="s">
@@ -3532,7 +3530,7 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B21" s="43" t="s">
@@ -3790,7 +3788,7 @@
       <c r="P31" s="40"/>
     </row>
     <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B32" s="43" t="s">
@@ -3808,7 +3806,7 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B33" s="43" t="s">
@@ -3826,7 +3824,7 @@
       <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B34" s="43" t="s">
@@ -3844,7 +3842,7 @@
       <c r="P34" s="32"/>
     </row>
     <row r="35" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B35" s="43" t="s">
@@ -3862,7 +3860,7 @@
       <c r="P35" s="32"/>
     </row>
     <row r="36" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -3880,7 +3878,7 @@
       <c r="P36" s="32"/>
     </row>
     <row r="37" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B37" s="43" t="s">
@@ -3898,7 +3896,7 @@
       <c r="P37" s="32"/>
     </row>
     <row r="38" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B38" s="43" t="s">
@@ -3916,7 +3914,7 @@
       <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B39" s="43" t="s">
@@ -3934,7 +3932,7 @@
       <c r="P39" s="32"/>
     </row>
     <row r="40" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B40" s="43" t="s">
@@ -3952,7 +3950,7 @@
       <c r="P40" s="32"/>
     </row>
     <row r="41" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="43" t="s">
         <v>365</v>
       </c>
       <c r="B41" s="43" t="s">
@@ -3977,10 +3975,770 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D424DE-2845-4B77-98C1-644B60657BFD}">
+  <dimension ref="A1:O41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.53125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" style="35" customWidth="1"/>
+    <col min="4" max="5" width="9" style="31"/>
+    <col min="6" max="13" width="9" style="33"/>
+    <col min="14" max="15" width="9" style="32"/>
+    <col min="16" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+    </row>
+    <row r="23" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+    </row>
+    <row r="24" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+    </row>
+    <row r="25" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+    </row>
+    <row r="26" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+    </row>
+    <row r="27" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+    </row>
+    <row r="28" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+    </row>
+    <row r="29" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+    </row>
+    <row r="30" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+    </row>
+    <row r="31" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DA4DC8-E8C7-4EFD-85FF-ED5AC0FC5E77}">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A41"/>
+      <selection activeCell="A32" sqref="A32:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -4021,7 +4779,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>66</v>
@@ -4037,7 +4795,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>66</v>
@@ -4053,7 +4811,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>312</v>
@@ -4069,7 +4827,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>312</v>
@@ -4085,7 +4843,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>312</v>
@@ -4101,7 +4859,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>312</v>
@@ -4117,7 +4875,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>312</v>
@@ -4133,7 +4891,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>312</v>
@@ -4149,7 +4907,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B10" s="42" t="s">
         <v>312</v>
@@ -4165,7 +4923,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>312</v>
@@ -4180,8 +4938,8 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>366</v>
+      <c r="A12" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>67</v>
@@ -4196,8 +4954,8 @@
       <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>366</v>
+      <c r="A13" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>67</v>
@@ -4212,8 +4970,8 @@
       <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>366</v>
+      <c r="A14" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>67</v>
@@ -4228,8 +4986,8 @@
       <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>366</v>
+      <c r="A15" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>67</v>
@@ -4244,8 +5002,8 @@
       <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>366</v>
+      <c r="A16" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>67</v>
@@ -4260,8 +5018,8 @@
       <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>366</v>
+      <c r="A17" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>67</v>
@@ -4276,8 +5034,8 @@
       <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>366</v>
+      <c r="A18" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>67</v>
@@ -4292,8 +5050,8 @@
       <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>366</v>
+      <c r="A19" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>67</v>
@@ -4308,8 +5066,8 @@
       <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>366</v>
+      <c r="A20" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>67</v>
@@ -4324,8 +5082,8 @@
       <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>366</v>
+      <c r="A21" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>67</v>
@@ -4341,7 +5099,7 @@
     </row>
     <row r="22" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>360</v>
@@ -4365,7 +5123,7 @@
     </row>
     <row r="23" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>360</v>
@@ -4389,7 +5147,7 @@
     </row>
     <row r="24" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>360</v>
@@ -4413,7 +5171,7 @@
     </row>
     <row r="25" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>360</v>
@@ -4437,7 +5195,7 @@
     </row>
     <row r="26" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>360</v>
@@ -4461,7 +5219,7 @@
     </row>
     <row r="27" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>360</v>
@@ -4485,7 +5243,7 @@
     </row>
     <row r="28" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>360</v>
@@ -4509,7 +5267,7 @@
     </row>
     <row r="29" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>360</v>
@@ -4533,7 +5291,7 @@
     </row>
     <row r="30" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>360</v>
@@ -4557,7 +5315,7 @@
     </row>
     <row r="31" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>360</v>
@@ -4580,8 +5338,8 @@
       <c r="P31" s="40"/>
     </row>
     <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>366</v>
+      <c r="A32" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>361</v>
@@ -4596,8 +5354,8 @@
       <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>366</v>
+      <c r="A33" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B33" s="43" t="s">
         <v>361</v>
@@ -4612,8 +5370,8 @@
       <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
-        <v>366</v>
+      <c r="A34" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>361</v>
@@ -4628,8 +5386,8 @@
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>366</v>
+      <c r="A35" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B35" s="43" t="s">
         <v>361</v>
@@ -4644,8 +5402,8 @@
       <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>366</v>
+      <c r="A36" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>361</v>
@@ -4660,8 +5418,8 @@
       <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>366</v>
+      <c r="A37" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B37" s="43" t="s">
         <v>361</v>
@@ -4676,8 +5434,8 @@
       <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>366</v>
+      <c r="A38" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>361</v>
@@ -4692,8 +5450,8 @@
       <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>366</v>
+      <c r="A39" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B39" s="43" t="s">
         <v>361</v>
@@ -4708,8 +5466,8 @@
       <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>366</v>
+      <c r="A40" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B40" s="43" t="s">
         <v>361</v>
@@ -4724,8 +5482,8 @@
       <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>366</v>
+      <c r="A41" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="B41" s="43" t="s">
         <v>361</v>
@@ -4745,12 +5503,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DA4DC8-E8C7-4EFD-85FF-ED5AC0FC5E77}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E541CDCB-BD21-4F20-9D15-D3FB91BD1DC4}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -4791,7 +5549,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>66</v>
@@ -4807,7 +5565,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>66</v>
@@ -4823,7 +5581,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>312</v>
@@ -4839,7 +5597,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>312</v>
@@ -4855,7 +5613,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>312</v>
@@ -4871,7 +5629,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>312</v>
@@ -4887,7 +5645,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>312</v>
@@ -4903,7 +5661,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>312</v>
@@ -4919,7 +5677,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B10" s="42" t="s">
         <v>312</v>
@@ -4935,7 +5693,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>312</v>
@@ -4950,8 +5708,8 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>367</v>
+      <c r="A12" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>67</v>
@@ -4966,8 +5724,8 @@
       <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>367</v>
+      <c r="A13" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>67</v>
@@ -4982,8 +5740,8 @@
       <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>367</v>
+      <c r="A14" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>67</v>
@@ -4998,8 +5756,8 @@
       <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>367</v>
+      <c r="A15" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>67</v>
@@ -5014,8 +5772,8 @@
       <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>367</v>
+      <c r="A16" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>67</v>
@@ -5030,8 +5788,8 @@
       <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>367</v>
+      <c r="A17" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>67</v>
@@ -5046,8 +5804,8 @@
       <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>367</v>
+      <c r="A18" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>67</v>
@@ -5062,8 +5820,8 @@
       <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>367</v>
+      <c r="A19" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>67</v>
@@ -5078,8 +5836,8 @@
       <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>367</v>
+      <c r="A20" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>67</v>
@@ -5094,8 +5852,8 @@
       <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>367</v>
+      <c r="A21" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>67</v>
@@ -5111,7 +5869,7 @@
     </row>
     <row r="22" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>360</v>
@@ -5135,7 +5893,7 @@
     </row>
     <row r="23" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>360</v>
@@ -5159,7 +5917,7 @@
     </row>
     <row r="24" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>360</v>
@@ -5183,7 +5941,7 @@
     </row>
     <row r="25" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>360</v>
@@ -5207,7 +5965,7 @@
     </row>
     <row r="26" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>360</v>
@@ -5231,7 +5989,7 @@
     </row>
     <row r="27" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>360</v>
@@ -5255,7 +6013,7 @@
     </row>
     <row r="28" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>360</v>
@@ -5279,7 +6037,7 @@
     </row>
     <row r="29" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>360</v>
@@ -5303,7 +6061,7 @@
     </row>
     <row r="30" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>360</v>
@@ -5327,7 +6085,7 @@
     </row>
     <row r="31" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>360</v>
@@ -5350,8 +6108,8 @@
       <c r="P31" s="40"/>
     </row>
     <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>367</v>
+      <c r="A32" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>361</v>
@@ -5366,8 +6124,8 @@
       <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>367</v>
+      <c r="A33" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B33" s="43" t="s">
         <v>361</v>
@@ -5382,8 +6140,8 @@
       <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
-        <v>367</v>
+      <c r="A34" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>361</v>
@@ -5398,8 +6156,8 @@
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>367</v>
+      <c r="A35" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B35" s="43" t="s">
         <v>361</v>
@@ -5414,8 +6172,8 @@
       <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>367</v>
+      <c r="A36" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>361</v>
@@ -5430,8 +6188,8 @@
       <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>367</v>
+      <c r="A37" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B37" s="43" t="s">
         <v>361</v>
@@ -5446,8 +6204,8 @@
       <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>367</v>
+      <c r="A38" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>361</v>
@@ -5462,8 +6220,8 @@
       <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>367</v>
+      <c r="A39" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B39" s="43" t="s">
         <v>361</v>
@@ -5478,8 +6236,8 @@
       <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>367</v>
+      <c r="A40" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="B40" s="43" t="s">
         <v>361</v>
@@ -5494,777 +6252,7 @@
       <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E541CDCB-BD21-4F20-9D15-D3FB91BD1DC4}">
-  <dimension ref="A1:P41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="10.53125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" style="35" customWidth="1"/>
-    <col min="4" max="5" width="9" style="31"/>
-    <col min="6" max="13" width="9" style="33"/>
-    <col min="14" max="16" width="9" style="32"/>
-    <col min="17" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-    </row>
-    <row r="26" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-    </row>
-    <row r="27" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-    </row>
-    <row r="28" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-    </row>
-    <row r="29" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-    </row>
-    <row r="30" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-    </row>
-    <row r="31" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="43" t="s">
         <v>368</v>
       </c>
       <c r="B41" s="43" t="s">
@@ -6751,7 +6739,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1328125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7110,7 +7098,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1328125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11512,8 +11500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11528,17 +11516,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>331</v>
+      <c r="D1" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Mescp/Code/Config/Mescp.xlsx
+++ b/Mescp/Code/Config/Mescp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="839" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="917" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Readme" sheetId="7" r:id="rId1"/>
@@ -16,19 +16,19 @@
     <sheet name="CropWorkspace" sheetId="2" r:id="rId7"/>
     <sheet name="Station" sheetId="8" r:id="rId8"/>
     <sheet name="SensitiveFactors" sheetId="9" r:id="rId9"/>
-    <sheet name="Period" sheetId="15" r:id="rId10"/>
-    <sheet name="Tavg" sheetId="10" r:id="rId11"/>
-    <sheet name="Tmax" sheetId="11" r:id="rId12"/>
-    <sheet name="Tmin" sheetId="12" r:id="rId13"/>
-    <sheet name="U" sheetId="13" r:id="rId14"/>
-    <sheet name="S" sheetId="14" r:id="rId15"/>
+    <sheet name="SF_Period" sheetId="15" r:id="rId10"/>
+    <sheet name="SF_S" sheetId="14" r:id="rId11"/>
+    <sheet name="SF_Tavg" sheetId="10" r:id="rId12"/>
+    <sheet name="SF_Tmax" sheetId="11" r:id="rId13"/>
+    <sheet name="SF_Tmin" sheetId="12" r:id="rId14"/>
+    <sheet name="SF_U" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="407">
   <si>
     <t>播种-出苗</t>
   </si>
@@ -1120,10 +1120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SF02</t>
   </si>
   <si>
@@ -1287,108 +1283,121 @@
     <t>第9期</t>
   </si>
   <si>
+    <t>PeriodCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70-79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80-89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播种期开始每10d为1个周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeriodName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensitiveFactors</t>
+  </si>
+  <si>
+    <t>敏感因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>T10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WGT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第10期</t>
-  </si>
-  <si>
-    <t>PeriodCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40-49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60-69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70-79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80-89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00-09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播种期开始每10d为1个周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeriodName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SensitiveFactors</t>
-  </si>
-  <si>
-    <t>敏感因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>T10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,9 +1405,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1549,7 +1559,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,9 +1674,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1688,13 +1695,25 @@
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2149,79 +2168,79 @@
     </row>
     <row r="9" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2235,7 +2254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B2B1FE-C1EF-4A93-813C-5221F008AD7D}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2250,129 +2271,129 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B2" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="C4" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="C5" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="C6" s="31" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="C7" s="31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="C8" s="31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="B8" s="35" t="s">
+      <c r="C9" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="C10" s="31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>388</v>
-      </c>
       <c r="C11" s="31" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2382,32 +2403,36 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8B765E-082C-4DE0-A4D8-C2EE292F4641}">
-  <dimension ref="A1:O41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E541CDCB-BD21-4F20-9D15-D3FB91BD1DC4}">
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.53125" style="13" customWidth="1"/>
     <col min="3" max="3" width="10.1328125" style="35" customWidth="1"/>
-    <col min="4" max="5" width="9" style="31"/>
-    <col min="6" max="12" width="9" style="33"/>
-    <col min="13" max="15" width="9" style="32"/>
-    <col min="16" max="16384" width="9" style="27"/>
+    <col min="4" max="4" width="9" style="31"/>
+    <col min="5" max="5" width="9" style="33"/>
+    <col min="6" max="6" width="9" style="31"/>
+    <col min="7" max="7" width="9" style="33"/>
+    <col min="8" max="8" width="9" style="31"/>
+    <col min="9" max="14" width="9" style="33"/>
+    <col min="15" max="17" width="9" style="32"/>
+    <col min="18" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>345</v>
@@ -2416,724 +2441,887 @@
         <v>346</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B4" s="42" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C5" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C6" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C7" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="42" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C8" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B8" s="42" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B9" s="42" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C11" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="44" t="s">
+      <c r="C22" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+    </row>
+    <row r="23" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+    </row>
+    <row r="24" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="44" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="44" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="44" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="44" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+    </row>
+    <row r="29" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="44" t="s">
+      <c r="D30" s="37"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+    </row>
+    <row r="31" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B22" s="42" t="s">
+      <c r="D31" s="37">
+        <v>10.5</v>
+      </c>
+      <c r="E31" s="50">
+        <v>58.7</v>
+      </c>
+      <c r="F31" s="37">
+        <v>10.4</v>
+      </c>
+      <c r="G31" s="50">
+        <v>94.3</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C32" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="44">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E32" s="51">
+        <v>89.8</v>
+      </c>
+      <c r="F32" s="44">
+        <v>17.8</v>
+      </c>
+      <c r="G32" s="51">
+        <v>106.6</v>
+      </c>
+      <c r="H32" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-    </row>
-    <row r="23" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B23" s="42" t="s">
+      <c r="D33" s="44">
+        <v>33.4</v>
+      </c>
+      <c r="E33" s="51">
+        <v>83.3</v>
+      </c>
+      <c r="F33" s="44">
+        <v>29.7</v>
+      </c>
+      <c r="G33" s="51">
+        <v>84.7</v>
+      </c>
+      <c r="H33" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C34" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-    </row>
-    <row r="24" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B24" s="42" t="s">
+      <c r="D34" s="44"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C35" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-    </row>
-    <row r="25" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B25" s="42" t="s">
+      <c r="D35" s="44"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C36" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-    </row>
-    <row r="26" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" s="42" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C37" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-    </row>
-    <row r="27" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B27" s="42" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C38" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-    </row>
-    <row r="28" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B28" s="42" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C39" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-    </row>
-    <row r="29" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="42" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C40" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-    </row>
-    <row r="30" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C41" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-    </row>
-    <row r="31" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="43" t="s">
+        <v>406</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3142,32 +3330,1065 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8B765E-082C-4DE0-A4D8-C2EE292F4641}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.53125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9" style="31"/>
+    <col min="5" max="5" width="9" style="33"/>
+    <col min="6" max="6" width="9" style="31"/>
+    <col min="7" max="7" width="9" style="33"/>
+    <col min="8" max="8" width="9" style="31"/>
+    <col min="9" max="9" width="9" style="47"/>
+    <col min="10" max="12" width="9" style="33"/>
+    <col min="13" max="15" width="9" style="32"/>
+    <col min="16" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M2" s="33"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="P3" s="32"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="37">
+        <v>24.2</v>
+      </c>
+      <c r="E4" s="50">
+        <v>30.9</v>
+      </c>
+      <c r="F4" s="37">
+        <v>24.1</v>
+      </c>
+      <c r="G4" s="50">
+        <v>31</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M4" s="33"/>
+      <c r="P4" s="32"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="37">
+        <v>24.4</v>
+      </c>
+      <c r="E5" s="50">
+        <v>28.1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>24.1</v>
+      </c>
+      <c r="G5" s="50">
+        <v>28.8</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M7" s="33"/>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="P12" s="32"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="44">
+        <v>23.3</v>
+      </c>
+      <c r="E13" s="51">
+        <v>28.9</v>
+      </c>
+      <c r="F13" s="44">
+        <v>21.9</v>
+      </c>
+      <c r="G13" s="51">
+        <v>30.7</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0.38</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="P13" s="32"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="P15" s="32"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="P16" s="32"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="P17" s="32"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M20" s="33"/>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="27"/>
+    </row>
+    <row r="23" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="37">
+        <v>23.3</v>
+      </c>
+      <c r="E23" s="50">
+        <v>26.2</v>
+      </c>
+      <c r="F23" s="37">
+        <v>23.2</v>
+      </c>
+      <c r="G23" s="50">
+        <v>29.1</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0.52</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="27"/>
+    </row>
+    <row r="24" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="27"/>
+    </row>
+    <row r="25" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="27"/>
+    </row>
+    <row r="26" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="27"/>
+    </row>
+    <row r="27" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="27"/>
+    </row>
+    <row r="28" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="27"/>
+    </row>
+    <row r="29" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="27"/>
+    </row>
+    <row r="30" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="27"/>
+    </row>
+    <row r="31" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="27"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M32" s="33"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="40"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="44">
+        <v>23.3</v>
+      </c>
+      <c r="E33" s="51">
+        <v>26.1</v>
+      </c>
+      <c r="F33" s="44">
+        <v>22</v>
+      </c>
+      <c r="G33" s="51">
+        <v>29.7</v>
+      </c>
+      <c r="H33" s="44">
+        <v>0.27</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="M33" s="33"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="40"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M34" s="33"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="40"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M35" s="33"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="40"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M36" s="33"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="40"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M37" s="33"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="40"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M38" s="33"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="40"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" s="44"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M39" s="33"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="40"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="M40" s="33"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="40"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D41" s="44">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E41" s="51">
+        <v>24.4</v>
+      </c>
+      <c r="F41" s="44">
+        <v>14</v>
+      </c>
+      <c r="G41" s="51">
+        <v>24.9</v>
+      </c>
+      <c r="H41" s="44">
+        <v>0.36</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="M41" s="33"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF326B5C-EE5B-442C-B7AB-F1CC572C49C3}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.53125" style="13" customWidth="1"/>
     <col min="2" max="2" width="10.1328125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="9" style="31"/>
-    <col min="5" max="12" width="9" style="33"/>
-    <col min="13" max="15" width="9" style="32"/>
-    <col min="16" max="16384" width="9" style="27"/>
+    <col min="3" max="3" width="10.3984375" style="31" customWidth="1"/>
+    <col min="4" max="5" width="9" style="33"/>
+    <col min="6" max="6" width="9" style="31"/>
+    <col min="7" max="7" width="9" style="33"/>
+    <col min="8" max="8" width="9" style="31"/>
+    <col min="9" max="13" width="9" style="33"/>
+    <col min="14" max="16" width="9" style="32"/>
+    <col min="17" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>345</v>
@@ -3176,1556 +4397,999 @@
         <v>346</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="M1" s="33"/>
-      <c r="P1" s="32"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="Q1" s="32"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="N2" s="33"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="M2" s="33"/>
-      <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="N3" s="33"/>
+      <c r="Q3" s="32"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="M3" s="33"/>
-      <c r="P3" s="32"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B4" s="42" t="s">
+      <c r="D4" s="37">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E4" s="50">
+        <v>42.2</v>
+      </c>
+      <c r="F4" s="37">
+        <v>31.6</v>
+      </c>
+      <c r="G4" s="50">
+        <v>42.3</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="Q4" s="32"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C5" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="M4" s="33"/>
-      <c r="P4" s="32"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="D5" s="37">
+        <v>31.2</v>
+      </c>
+      <c r="E5" s="50">
+        <v>36.4</v>
+      </c>
+      <c r="F5" s="37">
+        <v>31.1</v>
+      </c>
+      <c r="G5" s="50">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="Q5" s="32"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C6" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="M5" s="33"/>
-      <c r="P5" s="32"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="N6" s="33"/>
+      <c r="Q6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C7" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="M6" s="33"/>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B7" s="42" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="Q7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C8" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="M7" s="33"/>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="42" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="Q8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="M8" s="33"/>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B9" s="42" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="Q9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="M9" s="33"/>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="N10" s="33"/>
+      <c r="Q10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C11" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="M10" s="33"/>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="Q11" s="32"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N12" s="33"/>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="Q13" s="32"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="Q14" s="32"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="44">
+        <v>31.7</v>
+      </c>
+      <c r="E15" s="51">
+        <v>40.4</v>
+      </c>
+      <c r="F15" s="44">
+        <v>30.4</v>
+      </c>
+      <c r="G15" s="51">
+        <v>42</v>
+      </c>
+      <c r="H15" s="44">
+        <v>0.23</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="Q15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="Q16" s="32"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N18" s="33"/>
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N20" s="33"/>
+      <c r="Q20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N21" s="33"/>
+      <c r="Q21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="M11" s="33"/>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="44" t="s">
+      <c r="C22" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+    </row>
+    <row r="23" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="M12" s="33"/>
-      <c r="P12" s="32"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+    </row>
+    <row r="24" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="M13" s="33"/>
-      <c r="P13" s="32"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="44" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="M14" s="33"/>
-      <c r="P14" s="32"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="D25" s="37">
+        <v>32.6</v>
+      </c>
+      <c r="E25" s="50">
+        <v>36.4</v>
+      </c>
+      <c r="F25" s="37">
+        <v>32.5</v>
+      </c>
+      <c r="G25" s="50">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H25" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="M15" s="33"/>
-      <c r="P15" s="32"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="44" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="M16" s="33"/>
-      <c r="P16" s="32"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="44" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="M17" s="33"/>
-      <c r="P17" s="32"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="44" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+    </row>
+    <row r="29" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="M18" s="33"/>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="M19" s="33"/>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="44" t="s">
+      <c r="D30" s="37">
+        <v>28.3</v>
+      </c>
+      <c r="E30" s="50">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F30" s="37">
+        <v>26.6</v>
+      </c>
+      <c r="G30" s="50">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H30" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+    </row>
+    <row r="31" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="M20" s="33"/>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="M21" s="33"/>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B22" s="42" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C32" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N32" s="33"/>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B23" s="42" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N33" s="33"/>
+      <c r="Q33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C34" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B24" s="42" t="s">
+      <c r="D34" s="44"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N34" s="33"/>
+      <c r="Q34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C35" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B25" s="42" t="s">
+      <c r="D35" s="44">
+        <v>32.6</v>
+      </c>
+      <c r="E35" s="51">
+        <v>36.4</v>
+      </c>
+      <c r="F35" s="44">
+        <v>30.3</v>
+      </c>
+      <c r="G35" s="51">
+        <v>38.4</v>
+      </c>
+      <c r="H35" s="44">
+        <v>0.38</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="N35" s="33"/>
+      <c r="Q35" s="32"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C36" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-    </row>
-    <row r="26" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B26" s="42" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N36" s="33"/>
+      <c r="Q36" s="32"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C37" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-    </row>
-    <row r="27" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B27" s="42" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N37" s="33"/>
+      <c r="Q37" s="32"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C38" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-    </row>
-    <row r="28" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B28" s="42" t="s">
+      <c r="D38" s="44">
+        <v>30.1</v>
+      </c>
+      <c r="E38" s="51">
+        <v>37.5</v>
+      </c>
+      <c r="F38" s="44">
+        <v>27</v>
+      </c>
+      <c r="G38" s="51">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H38" s="44">
+        <v>-0.34</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="N38" s="33"/>
+      <c r="Q38" s="32"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C39" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-    </row>
-    <row r="29" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B29" s="42" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N39" s="33"/>
+      <c r="Q39" s="32"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C40" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-    </row>
-    <row r="30" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="D40" s="44">
+        <v>29.3</v>
+      </c>
+      <c r="E40" s="51">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F40" s="44">
+        <v>26.1</v>
+      </c>
+      <c r="G40" s="51">
+        <v>35.6</v>
+      </c>
+      <c r="H40" s="44">
+        <v>0.37</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="N40" s="33"/>
+      <c r="Q40" s="32"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C41" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-    </row>
-    <row r="31" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="M32" s="33"/>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="M33" s="33"/>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="M34" s="33"/>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="M35" s="33"/>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="M36" s="33"/>
-      <c r="P36" s="32"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="M37" s="33"/>
-      <c r="P37" s="32"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="M38" s="33"/>
-      <c r="P38" s="32"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="M39" s="33"/>
-      <c r="P39" s="32"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="M40" s="33"/>
-      <c r="P40" s="32"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="M41" s="33"/>
-      <c r="P41" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D424DE-2845-4B77-98C1-644B60657BFD}">
-  <dimension ref="A1:O41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="10.53125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" style="35" customWidth="1"/>
-    <col min="4" max="5" width="9" style="31"/>
-    <col min="6" max="13" width="9" style="33"/>
-    <col min="14" max="15" width="9" style="32"/>
-    <col min="16" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-    </row>
-    <row r="23" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-    </row>
-    <row r="24" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-    </row>
-    <row r="25" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-    </row>
-    <row r="26" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-    </row>
-    <row r="27" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-    </row>
-    <row r="28" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-    </row>
-    <row r="29" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-    </row>
-    <row r="30" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-    </row>
-    <row r="31" spans="1:15" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="N41" s="33"/>
+      <c r="Q41" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4734,32 +5398,36 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DA4DC8-E8C7-4EFD-85FF-ED5AC0FC5E77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D424DE-2845-4B77-98C1-644B60657BFD}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.53125" style="13" customWidth="1"/>
     <col min="3" max="3" width="10.1328125" style="35" customWidth="1"/>
-    <col min="4" max="5" width="9" style="31"/>
-    <col min="6" max="13" width="9" style="33"/>
-    <col min="14" max="16" width="9" style="32"/>
+    <col min="4" max="4" width="9" style="31"/>
+    <col min="5" max="5" width="9" style="33"/>
+    <col min="6" max="6" width="9" style="31"/>
+    <col min="7" max="7" width="9" style="33"/>
+    <col min="8" max="8" width="9" style="31"/>
+    <col min="9" max="14" width="9" style="33"/>
+    <col min="15" max="16" width="9" style="32"/>
     <col min="17" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>345</v>
@@ -4768,734 +5436,917 @@
         <v>346</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B2" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="37">
+        <v>15.4</v>
+      </c>
+      <c r="E2" s="50">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F2" s="37">
+        <v>15.1</v>
+      </c>
+      <c r="G2" s="50">
+        <v>21.9</v>
+      </c>
+      <c r="H2" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4" s="42" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C5" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="D5" s="37">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E5" s="50">
+        <v>22.1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G5" s="50">
+        <v>22.7</v>
+      </c>
+      <c r="H5" s="37">
+        <v>-0.18</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C6" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C7" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B7" s="42" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C8" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B8" s="42" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B9" s="42" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C11" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="44">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E13" s="51">
+        <v>21</v>
+      </c>
+      <c r="F13" s="44">
+        <v>14.8</v>
+      </c>
+      <c r="G13" s="51">
+        <v>22.6</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0.39</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="44" t="s">
+      <c r="C22" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="37">
+        <v>15.4</v>
+      </c>
+      <c r="E22" s="50">
+        <v>19.5</v>
+      </c>
+      <c r="F22" s="37">
+        <v>15.1</v>
+      </c>
+      <c r="G22" s="50">
+        <v>22.3</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+    </row>
+    <row r="24" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="44" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+    </row>
+    <row r="25" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+    </row>
+    <row r="26" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="44" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+    </row>
+    <row r="27" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="44" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+    </row>
+    <row r="28" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="44" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+    </row>
+    <row r="29" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+    </row>
+    <row r="30" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="44" t="s">
+      <c r="D30" s="37">
+        <v>11.6</v>
+      </c>
+      <c r="E30" s="50">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F30" s="37">
+        <v>10.6</v>
+      </c>
+      <c r="G30" s="50">
+        <v>21.3</v>
+      </c>
+      <c r="H30" s="37">
+        <v>0.48</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+    </row>
+    <row r="31" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B22" s="42" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C32" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="44">
+        <v>15.4</v>
+      </c>
+      <c r="E32" s="51">
+        <v>19.2</v>
+      </c>
+      <c r="F32" s="44">
+        <v>11.5</v>
+      </c>
+      <c r="G32" s="51">
+        <v>20.9</v>
+      </c>
+      <c r="H32" s="44">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B23" s="42" t="s">
+      <c r="D33" s="44">
+        <v>16.5</v>
+      </c>
+      <c r="E33" s="51">
+        <v>19.8</v>
+      </c>
+      <c r="F33" s="44">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G33" s="51">
+        <v>23.2</v>
+      </c>
+      <c r="H33" s="44">
+        <v>0.22</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C34" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B24" s="42" t="s">
+      <c r="D34" s="44"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C35" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B25" s="42" t="s">
+      <c r="D35" s="44"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C36" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-    </row>
-    <row r="26" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B26" s="42" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C37" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-    </row>
-    <row r="27" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B27" s="42" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C38" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-    </row>
-    <row r="28" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B28" s="42" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C39" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-    </row>
-    <row r="29" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B29" s="42" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C40" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-    </row>
-    <row r="30" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C41" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-    </row>
-    <row r="31" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="43" t="s">
+        <v>406</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5504,32 +6355,36 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E541CDCB-BD21-4F20-9D15-D3FB91BD1DC4}">
-  <dimension ref="A1:P41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DA4DC8-E8C7-4EFD-85FF-ED5AC0FC5E77}">
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.53125" style="13" customWidth="1"/>
     <col min="3" max="3" width="10.1328125" style="35" customWidth="1"/>
-    <col min="4" max="5" width="9" style="31"/>
-    <col min="6" max="13" width="9" style="33"/>
-    <col min="14" max="16" width="9" style="32"/>
-    <col min="17" max="16384" width="9" style="27"/>
+    <col min="4" max="4" width="9" style="31"/>
+    <col min="5" max="5" width="9" style="33"/>
+    <col min="6" max="6" width="9" style="31"/>
+    <col min="7" max="7" width="9" style="33"/>
+    <col min="8" max="8" width="9" style="31"/>
+    <col min="9" max="14" width="9" style="33"/>
+    <col min="15" max="17" width="9" style="32"/>
+    <col min="18" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>345</v>
@@ -5538,734 +6393,907 @@
         <v>346</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="37">
+        <v>37.5</v>
+      </c>
+      <c r="E3" s="50">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F3" s="37">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G3" s="50">
+        <v>83.5</v>
+      </c>
+      <c r="H3" s="37">
+        <v>-0.05</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="42" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C5" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C6" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C7" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7" s="42" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C8" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B8" s="42" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B9" s="42" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C11" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="D11" s="37">
+        <v>63</v>
+      </c>
+      <c r="E11" s="50">
+        <v>88.8</v>
+      </c>
+      <c r="F11" s="37">
+        <v>62.9</v>
+      </c>
+      <c r="G11" s="50">
+        <v>95.7</v>
+      </c>
+      <c r="H11" s="37">
+        <v>-0.05</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="44" t="s">
+      <c r="C22" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="37">
+        <v>43.6</v>
+      </c>
+      <c r="E22" s="50">
+        <v>77.7</v>
+      </c>
+      <c r="F22" s="37">
+        <v>43.5</v>
+      </c>
+      <c r="G22" s="50">
+        <v>90.1</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+    </row>
+    <row r="23" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+    </row>
+    <row r="24" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="44" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="44" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="44" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="44" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+    </row>
+    <row r="29" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="44" t="s">
+      <c r="D30" s="37"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+    </row>
+    <row r="31" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="42" t="s">
+      <c r="D31" s="37">
+        <v>75</v>
+      </c>
+      <c r="E31" s="50">
+        <v>88.8</v>
+      </c>
+      <c r="F31" s="37">
+        <v>66.7</v>
+      </c>
+      <c r="G31" s="50">
+        <v>95.7</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0.11</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C32" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="42" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C34" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-    </row>
-    <row r="24" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B24" s="42" t="s">
+      <c r="D34" s="44">
+        <v>58.4</v>
+      </c>
+      <c r="E34" s="51">
+        <v>83.6</v>
+      </c>
+      <c r="F34" s="44">
+        <v>58.3</v>
+      </c>
+      <c r="G34" s="51">
+        <v>84.7</v>
+      </c>
+      <c r="H34" s="44">
+        <v>-0.05</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C35" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B25" s="42" t="s">
+      <c r="D35" s="44"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C36" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-    </row>
-    <row r="26" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B26" s="42" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C37" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-    </row>
-    <row r="27" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B27" s="42" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C38" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-    </row>
-    <row r="28" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B28" s="42" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C39" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-    </row>
-    <row r="29" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B29" s="42" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C40" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-    </row>
-    <row r="30" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C41" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-    </row>
-    <row r="31" spans="1:16" s="41" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="49" t="s">
+        <v>406</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6628,7 +7656,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1328125" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11501,7 +12529,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11509,7 +12537,7 @@
     <col min="1" max="1" width="15.19921875" style="30" customWidth="1"/>
     <col min="2" max="2" width="13" style="31" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="26.59765625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" style="33" customWidth="1"/>
     <col min="5" max="10" width="9" style="33"/>
     <col min="11" max="13" width="9" style="32"/>
     <col min="14" max="16384" width="9" style="27"/>
@@ -11542,46 +12570,46 @@
     </row>
     <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/Mescp/Code/Config/Mescp.xlsx
+++ b/Mescp/Code/Config/Mescp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="917" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="917" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_Readme" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="406">
   <si>
     <t>播种-出苗</t>
   </si>
@@ -1287,46 +1287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40-49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60-69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70-79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80-89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00-09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>播种期开始每10d为1个周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1399,6 +1359,35 @@
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -2168,21 +2157,21 @@
     </row>
     <row r="9" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>343</v>
@@ -2190,40 +2179,40 @@
     </row>
     <row r="11" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>337</v>
@@ -2234,7 +2223,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>338</v>
@@ -2255,7 +2244,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2277,7 +2266,7 @@
         <v>377</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>69</v>
@@ -2288,13 +2277,13 @@
         <v>349</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>368</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2302,7 +2291,7 @@
         <v>350</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>369</v>
@@ -2313,7 +2302,7 @@
         <v>351</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>370</v>
@@ -2324,7 +2313,7 @@
         <v>352</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>371</v>
@@ -2335,7 +2324,7 @@
         <v>353</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>372</v>
@@ -2346,7 +2335,7 @@
         <v>354</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>373</v>
@@ -2357,7 +2346,7 @@
         <v>355</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>374</v>
@@ -2368,7 +2357,7 @@
         <v>356</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>375</v>
@@ -2379,7 +2368,7 @@
         <v>357</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>376</v>
@@ -2390,15 +2379,16 @@
         <v>358</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>386</v>
+        <v>307</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2406,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E541CDCB-BD21-4F20-9D15-D3FB91BD1DC4}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2447,7 +2437,7 @@
         <v>347</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>361</v>
@@ -2469,7 +2459,7 @@
       <c r="G2" s="50"/>
       <c r="H2" s="37"/>
       <c r="I2" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2488,7 +2478,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="37"/>
       <c r="I3" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2507,7 +2497,7 @@
       <c r="G4" s="50"/>
       <c r="H4" s="37"/>
       <c r="I4" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2526,7 +2516,7 @@
       <c r="G5" s="50"/>
       <c r="H5" s="37"/>
       <c r="I5" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2545,7 +2535,7 @@
       <c r="G6" s="50"/>
       <c r="H6" s="37"/>
       <c r="I6" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2564,7 +2554,7 @@
       <c r="G7" s="50"/>
       <c r="H7" s="37"/>
       <c r="I7" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2583,7 +2573,7 @@
       <c r="G8" s="50"/>
       <c r="H8" s="37"/>
       <c r="I8" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2602,7 +2592,7 @@
       <c r="G9" s="50"/>
       <c r="H9" s="37"/>
       <c r="I9" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2621,7 +2611,7 @@
       <c r="G10" s="50"/>
       <c r="H10" s="37"/>
       <c r="I10" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2640,7 +2630,7 @@
       <c r="G11" s="50"/>
       <c r="H11" s="37"/>
       <c r="I11" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2659,7 +2649,7 @@
       <c r="G12" s="51"/>
       <c r="H12" s="44"/>
       <c r="I12" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2678,7 +2668,7 @@
       <c r="G13" s="51"/>
       <c r="H13" s="44"/>
       <c r="I13" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2697,7 +2687,7 @@
       <c r="G14" s="51"/>
       <c r="H14" s="44"/>
       <c r="I14" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2716,7 +2706,7 @@
       <c r="G15" s="51"/>
       <c r="H15" s="44"/>
       <c r="I15" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2735,7 +2725,7 @@
       <c r="G16" s="51"/>
       <c r="H16" s="44"/>
       <c r="I16" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2754,7 +2744,7 @@
       <c r="G17" s="51"/>
       <c r="H17" s="44"/>
       <c r="I17" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2773,7 +2763,7 @@
       <c r="G18" s="51"/>
       <c r="H18" s="44"/>
       <c r="I18" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2792,7 +2782,7 @@
       <c r="G19" s="51"/>
       <c r="H19" s="44"/>
       <c r="I19" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2811,7 +2801,7 @@
       <c r="G20" s="51"/>
       <c r="H20" s="44"/>
       <c r="I20" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2830,7 +2820,7 @@
       <c r="G21" s="51"/>
       <c r="H21" s="44"/>
       <c r="I21" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2849,7 +2839,7 @@
       <c r="G22" s="50"/>
       <c r="H22" s="37"/>
       <c r="I22" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -2876,7 +2866,7 @@
       <c r="G23" s="50"/>
       <c r="H23" s="37"/>
       <c r="I23" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -2903,7 +2893,7 @@
       <c r="G24" s="50"/>
       <c r="H24" s="37"/>
       <c r="I24" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
@@ -2930,7 +2920,7 @@
       <c r="G25" s="50"/>
       <c r="H25" s="37"/>
       <c r="I25" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
@@ -2957,7 +2947,7 @@
       <c r="G26" s="50"/>
       <c r="H26" s="37"/>
       <c r="I26" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
@@ -2984,7 +2974,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="37"/>
       <c r="I27" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
@@ -3011,7 +3001,7 @@
       <c r="G28" s="50"/>
       <c r="H28" s="37"/>
       <c r="I28" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
@@ -3038,7 +3028,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="37"/>
       <c r="I29" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
@@ -3065,7 +3055,7 @@
       <c r="G30" s="50"/>
       <c r="H30" s="37"/>
       <c r="I30" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -3102,7 +3092,7 @@
         <v>0.05</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -3139,7 +3129,7 @@
         <v>0.05</v>
       </c>
       <c r="I32" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3168,7 +3158,7 @@
         <v>0.04</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3187,7 +3177,7 @@
       <c r="G34" s="51"/>
       <c r="H34" s="44"/>
       <c r="I34" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3206,7 +3196,7 @@
       <c r="G35" s="51"/>
       <c r="H35" s="44"/>
       <c r="I35" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3225,7 +3215,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="44"/>
       <c r="I36" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3244,7 +3234,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="44"/>
       <c r="I37" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3263,7 +3253,7 @@
       <c r="G38" s="51"/>
       <c r="H38" s="44"/>
       <c r="I38" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3282,7 +3272,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="44"/>
       <c r="I39" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3301,7 +3291,7 @@
       <c r="G40" s="51"/>
       <c r="H40" s="44"/>
       <c r="I40" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3320,7 +3310,7 @@
       <c r="G41" s="51"/>
       <c r="H41" s="44"/>
       <c r="I41" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3365,7 @@
         <v>347</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>361</v>
@@ -3397,7 +3387,7 @@
       <c r="G2" s="50"/>
       <c r="H2" s="37"/>
       <c r="I2" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M2" s="33"/>
       <c r="P2" s="32"/>
@@ -3418,7 +3408,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="37"/>
       <c r="I3" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M3" s="33"/>
       <c r="P3" s="32"/>
@@ -3449,7 +3439,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M4" s="33"/>
       <c r="P4" s="32"/>
@@ -3480,7 +3470,7 @@
         <v>0.27</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M5" s="33"/>
       <c r="P5" s="32"/>
@@ -3501,7 +3491,7 @@
       <c r="G6" s="50"/>
       <c r="H6" s="37"/>
       <c r="I6" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M6" s="33"/>
       <c r="P6" s="32"/>
@@ -3522,7 +3512,7 @@
       <c r="G7" s="50"/>
       <c r="H7" s="37"/>
       <c r="I7" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M7" s="33"/>
       <c r="P7" s="32"/>
@@ -3543,7 +3533,7 @@
       <c r="G8" s="50"/>
       <c r="H8" s="37"/>
       <c r="I8" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M8" s="33"/>
       <c r="P8" s="32"/>
@@ -3564,7 +3554,7 @@
       <c r="G9" s="50"/>
       <c r="H9" s="37"/>
       <c r="I9" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M9" s="33"/>
       <c r="P9" s="32"/>
@@ -3585,7 +3575,7 @@
       <c r="G10" s="50"/>
       <c r="H10" s="37"/>
       <c r="I10" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M10" s="33"/>
       <c r="P10" s="32"/>
@@ -3606,7 +3596,7 @@
       <c r="G11" s="50"/>
       <c r="H11" s="37"/>
       <c r="I11" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M11" s="33"/>
       <c r="P11" s="32"/>
@@ -3627,7 +3617,7 @@
       <c r="G12" s="51"/>
       <c r="H12" s="44"/>
       <c r="I12" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M12" s="33"/>
       <c r="P12" s="32"/>
@@ -3658,7 +3648,7 @@
         <v>0.38</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M13" s="33"/>
       <c r="P13" s="32"/>
@@ -3679,7 +3669,7 @@
       <c r="G14" s="51"/>
       <c r="H14" s="44"/>
       <c r="I14" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M14" s="33"/>
       <c r="P14" s="32"/>
@@ -3700,7 +3690,7 @@
       <c r="G15" s="51"/>
       <c r="H15" s="44"/>
       <c r="I15" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M15" s="33"/>
       <c r="P15" s="32"/>
@@ -3721,7 +3711,7 @@
       <c r="G16" s="51"/>
       <c r="H16" s="44"/>
       <c r="I16" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M16" s="33"/>
       <c r="P16" s="32"/>
@@ -3742,7 +3732,7 @@
       <c r="G17" s="51"/>
       <c r="H17" s="44"/>
       <c r="I17" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M17" s="33"/>
       <c r="P17" s="32"/>
@@ -3763,7 +3753,7 @@
       <c r="G18" s="51"/>
       <c r="H18" s="44"/>
       <c r="I18" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M18" s="33"/>
       <c r="P18" s="32"/>
@@ -3784,7 +3774,7 @@
       <c r="G19" s="51"/>
       <c r="H19" s="44"/>
       <c r="I19" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M19" s="33"/>
       <c r="P19" s="32"/>
@@ -3805,7 +3795,7 @@
       <c r="G20" s="51"/>
       <c r="H20" s="44"/>
       <c r="I20" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M20" s="33"/>
       <c r="P20" s="32"/>
@@ -3826,7 +3816,7 @@
       <c r="G21" s="51"/>
       <c r="H21" s="44"/>
       <c r="I21" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M21" s="33"/>
       <c r="P21" s="32"/>
@@ -3847,7 +3837,7 @@
       <c r="G22" s="50"/>
       <c r="H22" s="37"/>
       <c r="I22" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -3884,7 +3874,7 @@
         <v>0.52</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -3911,7 +3901,7 @@
       <c r="G24" s="50"/>
       <c r="H24" s="37"/>
       <c r="I24" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
@@ -3938,7 +3928,7 @@
       <c r="G25" s="50"/>
       <c r="H25" s="37"/>
       <c r="I25" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
@@ -3965,7 +3955,7 @@
       <c r="G26" s="50"/>
       <c r="H26" s="37"/>
       <c r="I26" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
@@ -3992,7 +3982,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="37"/>
       <c r="I27" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
@@ -4019,7 +4009,7 @@
       <c r="G28" s="50"/>
       <c r="H28" s="37"/>
       <c r="I28" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
@@ -4046,7 +4036,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="37"/>
       <c r="I29" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
@@ -4073,7 +4063,7 @@
       <c r="G30" s="50"/>
       <c r="H30" s="37"/>
       <c r="I30" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -4100,7 +4090,7 @@
       <c r="G31" s="50"/>
       <c r="H31" s="37"/>
       <c r="I31" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -4127,7 +4117,7 @@
       <c r="G32" s="51"/>
       <c r="H32" s="44"/>
       <c r="I32" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M32" s="33"/>
       <c r="P32" s="32"/>
@@ -4159,7 +4149,7 @@
         <v>0.27</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M33" s="33"/>
       <c r="P33" s="32"/>
@@ -4181,7 +4171,7 @@
       <c r="G34" s="51"/>
       <c r="H34" s="44"/>
       <c r="I34" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M34" s="33"/>
       <c r="P34" s="32"/>
@@ -4203,7 +4193,7 @@
       <c r="G35" s="51"/>
       <c r="H35" s="44"/>
       <c r="I35" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M35" s="33"/>
       <c r="P35" s="32"/>
@@ -4225,7 +4215,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="44"/>
       <c r="I36" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M36" s="33"/>
       <c r="P36" s="32"/>
@@ -4247,7 +4237,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="44"/>
       <c r="I37" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M37" s="33"/>
       <c r="P37" s="32"/>
@@ -4269,7 +4259,7 @@
       <c r="G38" s="51"/>
       <c r="H38" s="44"/>
       <c r="I38" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M38" s="33"/>
       <c r="P38" s="32"/>
@@ -4291,7 +4281,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="44"/>
       <c r="I39" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M39" s="33"/>
       <c r="P39" s="32"/>
@@ -4313,7 +4303,7 @@
       <c r="G40" s="51"/>
       <c r="H40" s="44"/>
       <c r="I40" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M40" s="33"/>
       <c r="P40" s="32"/>
@@ -4345,7 +4335,7 @@
         <v>0.36</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M41" s="33"/>
       <c r="P41" s="32"/>
@@ -4362,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF326B5C-EE5B-442C-B7AB-F1CC572C49C3}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -4403,7 +4393,7 @@
         <v>347</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>361</v>
@@ -4427,7 +4417,7 @@
       <c r="G2" s="50"/>
       <c r="H2" s="37"/>
       <c r="I2" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N2" s="33"/>
       <c r="Q2" s="32"/>
@@ -4448,7 +4438,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="37"/>
       <c r="I3" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N3" s="33"/>
       <c r="Q3" s="32"/>
@@ -4479,7 +4469,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="N4" s="33"/>
       <c r="Q4" s="32"/>
@@ -4510,7 +4500,7 @@
         <v>0.21</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="N5" s="33"/>
       <c r="Q5" s="32"/>
@@ -4531,7 +4521,7 @@
       <c r="G6" s="50"/>
       <c r="H6" s="37"/>
       <c r="I6" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N6" s="33"/>
       <c r="Q6" s="32"/>
@@ -4552,7 +4542,7 @@
       <c r="G7" s="50"/>
       <c r="H7" s="37"/>
       <c r="I7" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N7" s="33"/>
       <c r="Q7" s="32"/>
@@ -4573,7 +4563,7 @@
       <c r="G8" s="50"/>
       <c r="H8" s="37"/>
       <c r="I8" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N8" s="33"/>
       <c r="Q8" s="32"/>
@@ -4594,7 +4584,7 @@
       <c r="G9" s="50"/>
       <c r="H9" s="37"/>
       <c r="I9" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N9" s="33"/>
       <c r="Q9" s="32"/>
@@ -4615,7 +4605,7 @@
       <c r="G10" s="50"/>
       <c r="H10" s="37"/>
       <c r="I10" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N10" s="33"/>
       <c r="Q10" s="32"/>
@@ -4636,7 +4626,7 @@
       <c r="G11" s="50"/>
       <c r="H11" s="37"/>
       <c r="I11" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N11" s="33"/>
       <c r="Q11" s="32"/>
@@ -4657,7 +4647,7 @@
       <c r="G12" s="51"/>
       <c r="H12" s="44"/>
       <c r="I12" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N12" s="33"/>
       <c r="Q12" s="32"/>
@@ -4678,7 +4668,7 @@
       <c r="G13" s="51"/>
       <c r="H13" s="44"/>
       <c r="I13" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N13" s="33"/>
       <c r="Q13" s="32"/>
@@ -4699,7 +4689,7 @@
       <c r="G14" s="51"/>
       <c r="H14" s="44"/>
       <c r="I14" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N14" s="33"/>
       <c r="Q14" s="32"/>
@@ -4730,7 +4720,7 @@
         <v>0.23</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="N15" s="33"/>
       <c r="Q15" s="32"/>
@@ -4751,7 +4741,7 @@
       <c r="G16" s="51"/>
       <c r="H16" s="44"/>
       <c r="I16" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N16" s="33"/>
       <c r="Q16" s="32"/>
@@ -4772,7 +4762,7 @@
       <c r="G17" s="51"/>
       <c r="H17" s="44"/>
       <c r="I17" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N17" s="33"/>
       <c r="Q17" s="32"/>
@@ -4793,7 +4783,7 @@
       <c r="G18" s="51"/>
       <c r="H18" s="44"/>
       <c r="I18" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N18" s="33"/>
       <c r="Q18" s="32"/>
@@ -4814,7 +4804,7 @@
       <c r="G19" s="51"/>
       <c r="H19" s="44"/>
       <c r="I19" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N19" s="33"/>
       <c r="Q19" s="32"/>
@@ -4835,7 +4825,7 @@
       <c r="G20" s="51"/>
       <c r="H20" s="44"/>
       <c r="I20" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N20" s="33"/>
       <c r="Q20" s="32"/>
@@ -4856,7 +4846,7 @@
       <c r="G21" s="51"/>
       <c r="H21" s="44"/>
       <c r="I21" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N21" s="33"/>
       <c r="Q21" s="32"/>
@@ -4877,7 +4867,7 @@
       <c r="G22" s="50"/>
       <c r="H22" s="37"/>
       <c r="I22" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -4904,7 +4894,7 @@
       <c r="G23" s="50"/>
       <c r="H23" s="37"/>
       <c r="I23" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -4931,7 +4921,7 @@
       <c r="G24" s="50"/>
       <c r="H24" s="37"/>
       <c r="I24" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
@@ -4968,7 +4958,7 @@
         <v>0.27</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
@@ -4995,7 +4985,7 @@
       <c r="G26" s="50"/>
       <c r="H26" s="37"/>
       <c r="I26" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
@@ -5022,7 +5012,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="37"/>
       <c r="I27" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
@@ -5049,7 +5039,7 @@
       <c r="G28" s="50"/>
       <c r="H28" s="37"/>
       <c r="I28" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
@@ -5076,7 +5066,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="37"/>
       <c r="I29" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
@@ -5113,7 +5103,7 @@
         <v>0.33</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -5140,7 +5130,7 @@
       <c r="G31" s="50"/>
       <c r="H31" s="37"/>
       <c r="I31" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -5167,7 +5157,7 @@
       <c r="G32" s="51"/>
       <c r="H32" s="44"/>
       <c r="I32" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N32" s="33"/>
       <c r="Q32" s="32"/>
@@ -5188,7 +5178,7 @@
       <c r="G33" s="51"/>
       <c r="H33" s="44"/>
       <c r="I33" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N33" s="33"/>
       <c r="Q33" s="32"/>
@@ -5209,7 +5199,7 @@
       <c r="G34" s="51"/>
       <c r="H34" s="44"/>
       <c r="I34" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N34" s="33"/>
       <c r="Q34" s="32"/>
@@ -5240,7 +5230,7 @@
         <v>0.38</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="N35" s="33"/>
       <c r="Q35" s="32"/>
@@ -5261,7 +5251,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="44"/>
       <c r="I36" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N36" s="33"/>
       <c r="Q36" s="32"/>
@@ -5282,7 +5272,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="44"/>
       <c r="I37" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N37" s="33"/>
       <c r="Q37" s="32"/>
@@ -5310,10 +5300,10 @@
         <v>38.299999999999997</v>
       </c>
       <c r="H38" s="44">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="N38" s="33"/>
       <c r="Q38" s="32"/>
@@ -5334,7 +5324,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="44"/>
       <c r="I39" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N39" s="33"/>
       <c r="Q39" s="32"/>
@@ -5365,7 +5355,7 @@
         <v>0.37</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="N40" s="33"/>
       <c r="Q40" s="32"/>
@@ -5386,7 +5376,7 @@
       <c r="G41" s="51"/>
       <c r="H41" s="44"/>
       <c r="I41" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N41" s="33"/>
       <c r="Q41" s="32"/>
@@ -5442,7 +5432,7 @@
         <v>347</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>361</v>
@@ -5474,7 +5464,7 @@
         <v>0.37</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5493,7 +5483,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="37"/>
       <c r="I3" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5512,7 +5502,7 @@
       <c r="G4" s="50"/>
       <c r="H4" s="37"/>
       <c r="I4" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5541,7 +5531,7 @@
         <v>-0.18</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5560,7 +5550,7 @@
       <c r="G6" s="50"/>
       <c r="H6" s="37"/>
       <c r="I6" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5579,7 +5569,7 @@
       <c r="G7" s="50"/>
       <c r="H7" s="37"/>
       <c r="I7" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5598,7 +5588,7 @@
       <c r="G8" s="50"/>
       <c r="H8" s="37"/>
       <c r="I8" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5617,7 +5607,7 @@
       <c r="G9" s="50"/>
       <c r="H9" s="37"/>
       <c r="I9" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5636,7 +5626,7 @@
       <c r="G10" s="50"/>
       <c r="H10" s="37"/>
       <c r="I10" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5655,7 +5645,7 @@
       <c r="G11" s="50"/>
       <c r="H11" s="37"/>
       <c r="I11" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5674,7 +5664,7 @@
       <c r="G12" s="51"/>
       <c r="H12" s="44"/>
       <c r="I12" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5703,7 +5693,7 @@
         <v>0.39</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5722,7 +5712,7 @@
       <c r="G14" s="51"/>
       <c r="H14" s="44"/>
       <c r="I14" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5741,7 +5731,7 @@
       <c r="G15" s="51"/>
       <c r="H15" s="44"/>
       <c r="I15" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5760,7 +5750,7 @@
       <c r="G16" s="51"/>
       <c r="H16" s="44"/>
       <c r="I16" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5779,7 +5769,7 @@
       <c r="G17" s="51"/>
       <c r="H17" s="44"/>
       <c r="I17" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5798,7 +5788,7 @@
       <c r="G18" s="51"/>
       <c r="H18" s="44"/>
       <c r="I18" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5817,7 +5807,7 @@
       <c r="G19" s="51"/>
       <c r="H19" s="44"/>
       <c r="I19" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5836,7 +5826,7 @@
       <c r="G20" s="51"/>
       <c r="H20" s="44"/>
       <c r="I20" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5855,7 +5845,7 @@
       <c r="G21" s="51"/>
       <c r="H21" s="44"/>
       <c r="I21" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5884,7 +5874,7 @@
         <v>0.46</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -5910,7 +5900,7 @@
       <c r="G23" s="50"/>
       <c r="H23" s="37"/>
       <c r="I23" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -5936,7 +5926,7 @@
       <c r="G24" s="50"/>
       <c r="H24" s="37"/>
       <c r="I24" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
@@ -5962,7 +5952,7 @@
       <c r="G25" s="50"/>
       <c r="H25" s="37"/>
       <c r="I25" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
@@ -5988,7 +5978,7 @@
       <c r="G26" s="50"/>
       <c r="H26" s="37"/>
       <c r="I26" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
@@ -6014,7 +6004,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="37"/>
       <c r="I27" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
@@ -6040,7 +6030,7 @@
       <c r="G28" s="50"/>
       <c r="H28" s="37"/>
       <c r="I28" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
@@ -6066,7 +6056,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="37"/>
       <c r="I29" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
@@ -6102,7 +6092,7 @@
         <v>0.48</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -6128,7 +6118,7 @@
       <c r="G31" s="50"/>
       <c r="H31" s="37"/>
       <c r="I31" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -6164,7 +6154,7 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="I32" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6193,7 +6183,7 @@
         <v>0.22</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6212,7 +6202,7 @@
       <c r="G34" s="51"/>
       <c r="H34" s="44"/>
       <c r="I34" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6231,7 +6221,7 @@
       <c r="G35" s="51"/>
       <c r="H35" s="44"/>
       <c r="I35" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6250,7 +6240,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="44"/>
       <c r="I36" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6269,7 +6259,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="44"/>
       <c r="I37" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6288,7 +6278,7 @@
       <c r="G38" s="51"/>
       <c r="H38" s="44"/>
       <c r="I38" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6307,7 +6297,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="44"/>
       <c r="I39" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6326,7 +6316,7 @@
       <c r="G40" s="51"/>
       <c r="H40" s="44"/>
       <c r="I40" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6345,7 +6335,7 @@
       <c r="G41" s="51"/>
       <c r="H41" s="44"/>
       <c r="I41" s="43" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6358,7 +6348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DA4DC8-E8C7-4EFD-85FF-ED5AC0FC5E77}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I41"/>
     </sheetView>
   </sheetViews>
@@ -6399,7 +6389,7 @@
         <v>347</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>361</v>
@@ -6421,7 +6411,7 @@
       <c r="G2" s="50"/>
       <c r="H2" s="37"/>
       <c r="I2" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6450,7 +6440,7 @@
         <v>-0.05</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6469,7 +6459,7 @@
       <c r="G4" s="50"/>
       <c r="H4" s="37"/>
       <c r="I4" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6488,7 +6478,7 @@
       <c r="G5" s="50"/>
       <c r="H5" s="37"/>
       <c r="I5" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6507,7 +6497,7 @@
       <c r="G6" s="50"/>
       <c r="H6" s="37"/>
       <c r="I6" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6526,7 +6516,7 @@
       <c r="G7" s="50"/>
       <c r="H7" s="37"/>
       <c r="I7" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6545,7 +6535,7 @@
       <c r="G8" s="50"/>
       <c r="H8" s="37"/>
       <c r="I8" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6564,7 +6554,7 @@
       <c r="G9" s="50"/>
       <c r="H9" s="37"/>
       <c r="I9" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6583,7 +6573,7 @@
       <c r="G10" s="50"/>
       <c r="H10" s="37"/>
       <c r="I10" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6612,7 +6602,7 @@
         <v>-0.05</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6631,7 +6621,7 @@
       <c r="G12" s="51"/>
       <c r="H12" s="44"/>
       <c r="I12" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6650,7 +6640,7 @@
       <c r="G13" s="51"/>
       <c r="H13" s="44"/>
       <c r="I13" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6669,7 +6659,7 @@
       <c r="G14" s="51"/>
       <c r="H14" s="44"/>
       <c r="I14" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6688,7 +6678,7 @@
       <c r="G15" s="51"/>
       <c r="H15" s="44"/>
       <c r="I15" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6707,7 +6697,7 @@
       <c r="G16" s="51"/>
       <c r="H16" s="44"/>
       <c r="I16" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6726,7 +6716,7 @@
       <c r="G17" s="51"/>
       <c r="H17" s="44"/>
       <c r="I17" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6745,7 +6735,7 @@
       <c r="G18" s="51"/>
       <c r="H18" s="44"/>
       <c r="I18" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6764,7 +6754,7 @@
       <c r="G19" s="51"/>
       <c r="H19" s="44"/>
       <c r="I19" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6783,7 +6773,7 @@
       <c r="G20" s="51"/>
       <c r="H20" s="44"/>
       <c r="I20" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6802,7 +6792,7 @@
       <c r="G21" s="51"/>
       <c r="H21" s="44"/>
       <c r="I21" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6831,7 +6821,7 @@
         <v>0.08</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
@@ -6858,7 +6848,7 @@
       <c r="G23" s="50"/>
       <c r="H23" s="37"/>
       <c r="I23" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -6885,7 +6875,7 @@
       <c r="G24" s="50"/>
       <c r="H24" s="37"/>
       <c r="I24" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
@@ -6912,7 +6902,7 @@
       <c r="G25" s="50"/>
       <c r="H25" s="37"/>
       <c r="I25" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
@@ -6939,7 +6929,7 @@
       <c r="G26" s="50"/>
       <c r="H26" s="37"/>
       <c r="I26" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
@@ -6966,7 +6956,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="37"/>
       <c r="I27" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
@@ -6993,7 +6983,7 @@
       <c r="G28" s="50"/>
       <c r="H28" s="37"/>
       <c r="I28" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
@@ -7020,7 +7010,7 @@
       <c r="G29" s="50"/>
       <c r="H29" s="37"/>
       <c r="I29" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
@@ -7047,7 +7037,7 @@
       <c r="G30" s="50"/>
       <c r="H30" s="37"/>
       <c r="I30" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -7084,7 +7074,7 @@
         <v>0.11</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -7111,7 +7101,7 @@
       <c r="G32" s="51"/>
       <c r="H32" s="44"/>
       <c r="I32" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7130,7 +7120,7 @@
       <c r="G33" s="51"/>
       <c r="H33" s="44"/>
       <c r="I33" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7159,7 +7149,7 @@
         <v>-0.05</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7178,7 +7168,7 @@
       <c r="G35" s="51"/>
       <c r="H35" s="44"/>
       <c r="I35" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7197,7 +7187,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="44"/>
       <c r="I36" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7216,7 +7206,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="44"/>
       <c r="I37" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7235,7 +7225,7 @@
       <c r="G38" s="51"/>
       <c r="H38" s="44"/>
       <c r="I38" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7254,7 +7244,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="44"/>
       <c r="I39" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7273,7 +7263,7 @@
       <c r="G40" s="51"/>
       <c r="H40" s="44"/>
       <c r="I40" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -7292,7 +7282,7 @@
       <c r="G41" s="51"/>
       <c r="H41" s="44"/>
       <c r="I41" s="49" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
